--- a/2023/data.xlsx
+++ b/2023/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE952"/>
+  <dimension ref="A1:AE953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Palautetta kyselystä ja ideoita ensi vuoden kyselyyn</t>
+          <t>Palaute</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
@@ -85619,65 +85619,69 @@
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
-        <v>45172.50144056713</v>
+        <v>45193.93888145834</v>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>Laskuttaja</t>
+          <t>Palkansaaja</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>palkansaaja → laskuttaja</t>
+          <t>Ei</t>
         </is>
       </c>
       <c r="D895" t="inlineStr">
         <is>
-          <t>&lt; 15v</t>
+          <t>41-45</t>
         </is>
       </c>
       <c r="E895" t="inlineStr"/>
       <c r="F895" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr"/>
-      <c r="I895" t="n">
-        <v>12</v>
-      </c>
-      <c r="J895" t="inlineStr">
-        <is>
-          <t>Web dev</t>
-        </is>
-      </c>
-      <c r="K895" t="n">
-        <v>240</v>
-      </c>
-      <c r="L895" t="n">
-        <v>240000</v>
-      </c>
-      <c r="M895" t="inlineStr">
-        <is>
-          <t>Myself</t>
-        </is>
-      </c>
-      <c r="N895" t="inlineStr">
-        <is>
-          <t>Suomesta</t>
-        </is>
-      </c>
+      <c r="H895" t="n">
+        <v>2</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
+      <c r="J895" t="inlineStr"/>
+      <c r="K895" t="inlineStr"/>
+      <c r="L895" t="inlineStr"/>
+      <c r="M895" t="inlineStr"/>
+      <c r="N895" t="inlineStr"/>
       <c r="O895" t="inlineStr"/>
-      <c r="P895" t="inlineStr"/>
-      <c r="Q895" t="inlineStr"/>
-      <c r="R895" t="inlineStr"/>
-      <c r="S895" t="inlineStr"/>
-      <c r="T895" t="inlineStr"/>
-      <c r="U895" t="inlineStr"/>
-      <c r="V895" t="inlineStr"/>
+      <c r="P895" t="inlineStr">
+        <is>
+          <t>Tampere</t>
+        </is>
+      </c>
+      <c r="Q895" t="inlineStr">
+        <is>
+          <t>Tuotetalossa, jonka core-bisnes on softa</t>
+        </is>
+      </c>
+      <c r="R895" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S895" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T895" t="inlineStr">
+        <is>
+          <t>Software architect, full-stack</t>
+        </is>
+      </c>
+      <c r="U895" t="n">
+        <v>4500</v>
+      </c>
+      <c r="V895" t="n">
+        <v>60000</v>
+      </c>
       <c r="W895" t="inlineStr"/>
       <c r="X895" t="inlineStr">
         <is>
-          <t>Muu</t>
+          <t>Kyllä</t>
         </is>
       </c>
       <c r="Y895" t="inlineStr"/>
@@ -85685,16 +85689,24 @@
       <c r="AA895" t="inlineStr"/>
       <c r="AB895" t="inlineStr">
         <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="AC895" t="inlineStr"/>
-      <c r="AD895" t="inlineStr"/>
-      <c r="AE895" t="inlineStr"/>
+          <t>fi</t>
+        </is>
+      </c>
+      <c r="AC895" t="inlineStr">
+        <is>
+          <t>Software architect, full-stack</t>
+        </is>
+      </c>
+      <c r="AD895" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AE895" t="n">
+        <v>8333.333333333334</v>
+      </c>
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
-        <v>45173.4087665625</v>
+        <v>45193.98985868056</v>
       </c>
       <c r="B896" t="inlineStr">
         <is>
@@ -85708,7 +85720,7 @@
       </c>
       <c r="D896" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>36-40</t>
         </is>
       </c>
       <c r="E896" t="inlineStr">
@@ -85717,15 +85729,15 @@
         </is>
       </c>
       <c r="F896" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G896" t="inlineStr">
         <is>
-          <t>Ylioppilas</t>
+          <t>Luonnontieteiden kandidaatti</t>
         </is>
       </c>
       <c r="H896" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -85741,30 +85753,34 @@
       </c>
       <c r="Q896" t="inlineStr">
         <is>
-          <t>Tuotetalossa, jonka core-bisnes on softa</t>
+          <t>Konsulttitalossa</t>
         </is>
       </c>
       <c r="R896" t="n">
         <v>1</v>
       </c>
       <c r="S896" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="T896" t="inlineStr">
         <is>
-          <t>Backend developer</t>
+          <t>CxO</t>
         </is>
       </c>
       <c r="U896" t="n">
-        <v>7300</v>
+        <v>8500</v>
       </c>
       <c r="V896" t="n">
-        <v>250000</v>
-      </c>
-      <c r="W896" t="inlineStr"/>
+        <v>102000</v>
+      </c>
+      <c r="W896" t="inlineStr">
+        <is>
+          <t>Palkka</t>
+        </is>
+      </c>
       <c r="X896" t="inlineStr">
         <is>
-          <t>Kyllä</t>
+          <t>Ei</t>
         </is>
       </c>
       <c r="Y896" t="inlineStr"/>
@@ -85772,94 +85788,82 @@
       <c r="AA896" t="inlineStr"/>
       <c r="AB896" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fi</t>
         </is>
       </c>
       <c r="AC896" t="inlineStr">
         <is>
-          <t>Backend developer</t>
+          <t>CxO</t>
         </is>
       </c>
       <c r="AD896" t="n">
-        <v>20833.33333333333</v>
+        <v>8500</v>
       </c>
       <c r="AE896" t="n">
-        <v>20833.33333333333</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
-        <v>45173.44946724537</v>
+        <v>45172.50144056713</v>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>Palkansaaja</t>
+          <t>Laskuttaja</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Ei</t>
+          <t>palkansaaja → laskuttaja</t>
         </is>
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>41-45</t>
-        </is>
-      </c>
-      <c r="E897" t="inlineStr">
-        <is>
-          <t>mies</t>
-        </is>
-      </c>
+          <t>&lt; 15v</t>
+        </is>
+      </c>
+      <c r="E897" t="inlineStr"/>
       <c r="F897" t="n">
-        <v>20</v>
-      </c>
-      <c r="G897" t="inlineStr">
-        <is>
-          <t>BBA</t>
-        </is>
-      </c>
-      <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
-      <c r="L897" t="inlineStr"/>
-      <c r="M897" t="inlineStr"/>
-      <c r="N897" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="G897" t="inlineStr"/>
+      <c r="H897" t="inlineStr"/>
+      <c r="I897" t="n">
+        <v>12</v>
+      </c>
+      <c r="J897" t="inlineStr">
+        <is>
+          <t>Web dev</t>
+        </is>
+      </c>
+      <c r="K897" t="n">
+        <v>240</v>
+      </c>
+      <c r="L897" t="n">
+        <v>240000</v>
+      </c>
+      <c r="M897" t="inlineStr">
+        <is>
+          <t>Myself</t>
+        </is>
+      </c>
+      <c r="N897" t="inlineStr">
+        <is>
+          <t>Suomesta</t>
+        </is>
+      </c>
       <c r="O897" t="inlineStr"/>
-      <c r="P897" t="inlineStr">
-        <is>
-          <t>No HQ</t>
-        </is>
-      </c>
-      <c r="Q897" t="inlineStr">
-        <is>
-          <t>Tuotetalossa, jonka core-bisnes on softa</t>
-        </is>
-      </c>
-      <c r="R897" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S897" t="n">
-        <v>0</v>
-      </c>
-      <c r="T897" t="inlineStr">
-        <is>
-          <t>CTO</t>
-        </is>
-      </c>
-      <c r="U897" t="n">
-        <v>4500</v>
-      </c>
-      <c r="V897" t="n">
-        <v>54000</v>
-      </c>
+      <c r="P897" t="inlineStr"/>
+      <c r="Q897" t="inlineStr"/>
+      <c r="R897" t="inlineStr"/>
+      <c r="S897" t="inlineStr"/>
+      <c r="T897" t="inlineStr"/>
+      <c r="U897" t="inlineStr"/>
+      <c r="V897" t="inlineStr"/>
       <c r="W897" t="inlineStr"/>
       <c r="X897" t="inlineStr">
         <is>
-          <t>Ei</t>
+          <t>Muu</t>
         </is>
       </c>
       <c r="Y897" t="inlineStr"/>
@@ -85870,21 +85874,13 @@
           <t>en</t>
         </is>
       </c>
-      <c r="AC897" t="inlineStr">
-        <is>
-          <t>CTO</t>
-        </is>
-      </c>
-      <c r="AD897" t="n">
-        <v>4500</v>
-      </c>
-      <c r="AE897" t="n">
-        <v>3750</v>
-      </c>
+      <c r="AC897" t="inlineStr"/>
+      <c r="AD897" t="inlineStr"/>
+      <c r="AE897" t="inlineStr"/>
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
-        <v>45173.52612877315</v>
+        <v>45173.4087665625</v>
       </c>
       <c r="B898" t="inlineStr">
         <is>
@@ -85907,15 +85903,15 @@
         </is>
       </c>
       <c r="F898" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G898" t="inlineStr">
         <is>
-          <t>self-taught</t>
+          <t>Ylioppilas</t>
         </is>
       </c>
       <c r="H898" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -85938,17 +85934,19 @@
         <v>1</v>
       </c>
       <c r="S898" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="T898" t="inlineStr">
         <is>
-          <t>Junior Full Stack Developer</t>
+          <t>Backend developer</t>
         </is>
       </c>
       <c r="U898" t="n">
-        <v>3800</v>
-      </c>
-      <c r="V898" t="inlineStr"/>
+        <v>7300</v>
+      </c>
+      <c r="V898" t="n">
+        <v>250000</v>
+      </c>
       <c r="W898" t="inlineStr"/>
       <c r="X898" t="inlineStr">
         <is>
@@ -85965,15 +85963,19 @@
       </c>
       <c r="AC898" t="inlineStr">
         <is>
-          <t>Junior Full Stack Developer</t>
-        </is>
-      </c>
-      <c r="AD898" t="inlineStr"/>
-      <c r="AE898" t="inlineStr"/>
+          <t>Backend developer</t>
+        </is>
+      </c>
+      <c r="AD898" t="n">
+        <v>20833.33333333333</v>
+      </c>
+      <c r="AE898" t="n">
+        <v>20833.33333333333</v>
+      </c>
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
-        <v>45174.45953944445</v>
+        <v>45173.44946724537</v>
       </c>
       <c r="B899" t="inlineStr">
         <is>
@@ -85987,7 +85989,7 @@
       </c>
       <c r="D899" t="inlineStr">
         <is>
-          <t>36-40</t>
+          <t>41-45</t>
         </is>
       </c>
       <c r="E899" t="inlineStr">
@@ -85996,11 +85998,11 @@
         </is>
       </c>
       <c r="F899" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G899" t="inlineStr">
         <is>
-          <t>MSc. in Software Engineering</t>
+          <t>BBA</t>
         </is>
       </c>
       <c r="H899" t="n">
@@ -86012,55 +86014,43 @@
       <c r="L899" t="inlineStr"/>
       <c r="M899" t="inlineStr"/>
       <c r="N899" t="inlineStr"/>
-      <c r="O899" t="inlineStr">
-        <is>
-          <t>Arado</t>
-        </is>
-      </c>
+      <c r="O899" t="inlineStr"/>
       <c r="P899" t="inlineStr">
         <is>
-          <t>Turku</t>
+          <t>No HQ</t>
         </is>
       </c>
       <c r="Q899" t="inlineStr">
         <is>
-          <t>Consulting</t>
+          <t>Tuotetalossa, jonka core-bisnes on softa</t>
         </is>
       </c>
       <c r="R899" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="S899" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T899" t="inlineStr">
         <is>
-          <t>Fullstack developer</t>
+          <t>CTO</t>
         </is>
       </c>
       <c r="U899" t="n">
-        <v>7100</v>
+        <v>4500</v>
       </c>
       <c r="V899" t="n">
-        <v>86000</v>
-      </c>
-      <c r="W899" t="inlineStr">
-        <is>
-          <t>Our salary model is 50% from what we invoice (with base salary to help if there's no billable work)</t>
-        </is>
-      </c>
+        <v>54000</v>
+      </c>
+      <c r="W899" t="inlineStr"/>
       <c r="X899" t="inlineStr">
         <is>
-          <t>Kyllä</t>
+          <t>Ei</t>
         </is>
       </c>
       <c r="Y899" t="inlineStr"/>
       <c r="Z899" t="inlineStr"/>
-      <c r="AA899" t="inlineStr">
-        <is>
-          <t>Good stuff again, really nice that people find time to create and organize these surveys!</t>
-        </is>
-      </c>
+      <c r="AA899" t="inlineStr"/>
       <c r="AB899" t="inlineStr">
         <is>
           <t>en</t>
@@ -86068,33 +86058,33 @@
       </c>
       <c r="AC899" t="inlineStr">
         <is>
-          <t>*Full-stack Developer</t>
+          <t>CTO</t>
         </is>
       </c>
       <c r="AD899" t="n">
-        <v>7166.666666666667</v>
+        <v>4500</v>
       </c>
       <c r="AE899" t="n">
-        <v>7166.666666666667</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
-        <v>45174.51631340278</v>
+        <v>45173.52612877315</v>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>Laskuttaja</t>
+          <t>Palkansaaja</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>palkansaaja → laskuttaja</t>
+          <t>Ei</t>
         </is>
       </c>
       <c r="D900" t="inlineStr">
         <is>
-          <t>46-50</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E900" t="inlineStr">
@@ -86103,52 +86093,52 @@
         </is>
       </c>
       <c r="F900" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G900" t="inlineStr">
         <is>
-          <t>M.Sc. Computer Science</t>
+          <t>self-taught</t>
         </is>
       </c>
       <c r="H900" t="n">
         <v>5</v>
       </c>
-      <c r="I900" t="n">
+      <c r="I900" t="inlineStr"/>
+      <c r="J900" t="inlineStr"/>
+      <c r="K900" t="inlineStr"/>
+      <c r="L900" t="inlineStr"/>
+      <c r="M900" t="inlineStr"/>
+      <c r="N900" t="inlineStr"/>
+      <c r="O900" t="inlineStr"/>
+      <c r="P900" t="inlineStr">
+        <is>
+          <t>PK-seutu</t>
+        </is>
+      </c>
+      <c r="Q900" t="inlineStr">
+        <is>
+          <t>Tuotetalossa, jonka core-bisnes on softa</t>
+        </is>
+      </c>
+      <c r="R900" t="n">
         <v>1</v>
       </c>
-      <c r="J900" t="inlineStr">
-        <is>
-          <t>Backend, architecture, project management</t>
-        </is>
-      </c>
-      <c r="K900" t="n">
-        <v>80</v>
-      </c>
-      <c r="L900" t="n">
-        <v>130000</v>
-      </c>
-      <c r="M900" t="inlineStr">
-        <is>
-          <t>Agencies</t>
-        </is>
-      </c>
-      <c r="N900" t="inlineStr">
-        <is>
-          <t>Abroad</t>
-        </is>
-      </c>
-      <c r="O900" t="inlineStr"/>
-      <c r="P900" t="inlineStr"/>
-      <c r="Q900" t="inlineStr"/>
-      <c r="R900" t="inlineStr"/>
-      <c r="S900" t="inlineStr"/>
-      <c r="T900" t="inlineStr"/>
-      <c r="U900" t="inlineStr"/>
+      <c r="S900" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T900" t="inlineStr">
+        <is>
+          <t>Junior Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="U900" t="n">
+        <v>3800</v>
+      </c>
       <c r="V900" t="inlineStr"/>
       <c r="W900" t="inlineStr"/>
       <c r="X900" t="inlineStr">
         <is>
-          <t>Muu</t>
+          <t>Kyllä</t>
         </is>
       </c>
       <c r="Y900" t="inlineStr"/>
@@ -86159,13 +86149,17 @@
           <t>en</t>
         </is>
       </c>
-      <c r="AC900" t="inlineStr"/>
+      <c r="AC900" t="inlineStr">
+        <is>
+          <t>Junior Full Stack Developer</t>
+        </is>
+      </c>
       <c r="AD900" t="inlineStr"/>
       <c r="AE900" t="inlineStr"/>
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
-        <v>45175.35538100694</v>
+        <v>45174.45953944445</v>
       </c>
       <c r="B901" t="inlineStr">
         <is>
@@ -86179,7 +86173,7 @@
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>26-30</t>
+          <t>36-40</t>
         </is>
       </c>
       <c r="E901" t="inlineStr">
@@ -86188,15 +86182,15 @@
         </is>
       </c>
       <c r="F901" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G901" t="inlineStr">
         <is>
-          <t>Bachelors degree in ICT</t>
+          <t>MSc. in Software Engineering</t>
         </is>
       </c>
       <c r="H901" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -86204,10 +86198,14 @@
       <c r="L901" t="inlineStr"/>
       <c r="M901" t="inlineStr"/>
       <c r="N901" t="inlineStr"/>
-      <c r="O901" t="inlineStr"/>
+      <c r="O901" t="inlineStr">
+        <is>
+          <t>Arado</t>
+        </is>
+      </c>
       <c r="P901" t="inlineStr">
         <is>
-          <t>PK-seutu</t>
+          <t>Turku</t>
         </is>
       </c>
       <c r="Q901" t="inlineStr">
@@ -86219,28 +86217,36 @@
         <v>1</v>
       </c>
       <c r="S901" t="n">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="T901" t="inlineStr">
         <is>
-          <t>Backend developer</t>
+          <t>Fullstack developer</t>
         </is>
       </c>
       <c r="U901" t="n">
-        <v>3900</v>
+        <v>7100</v>
       </c>
       <c r="V901" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W901" t="inlineStr"/>
+        <v>86000</v>
+      </c>
+      <c r="W901" t="inlineStr">
+        <is>
+          <t>Our salary model is 50% from what we invoice (with base salary to help if there's no billable work)</t>
+        </is>
+      </c>
       <c r="X901" t="inlineStr">
         <is>
-          <t>Ei</t>
+          <t>Kyllä</t>
         </is>
       </c>
       <c r="Y901" t="inlineStr"/>
       <c r="Z901" t="inlineStr"/>
-      <c r="AA901" t="inlineStr"/>
+      <c r="AA901" t="inlineStr">
+        <is>
+          <t>Good stuff again, really nice that people find time to create and organize these surveys!</t>
+        </is>
+      </c>
       <c r="AB901" t="inlineStr">
         <is>
           <t>en</t>
@@ -86248,19 +86254,19 @@
       </c>
       <c r="AC901" t="inlineStr">
         <is>
-          <t>Backend developer</t>
+          <t>*Full-stack Developer</t>
         </is>
       </c>
       <c r="AD901" t="n">
-        <v>4166.666666666667</v>
+        <v>7166.666666666667</v>
       </c>
       <c r="AE901" t="n">
-        <v>4166.666666666667</v>
+        <v>7166.666666666667</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
-        <v>45175.45504726852</v>
+        <v>45174.51631340278</v>
       </c>
       <c r="B902" t="inlineStr">
         <is>
@@ -86269,48 +86275,52 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Ei</t>
+          <t>palkansaaja → laskuttaja</t>
         </is>
       </c>
       <c r="D902" t="inlineStr">
         <is>
-          <t>36-40</t>
-        </is>
-      </c>
-      <c r="E902" t="inlineStr"/>
+          <t>46-50</t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
       <c r="F902" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G902" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>M.Sc. Computer Science</t>
         </is>
       </c>
       <c r="H902" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I902" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>Architecture, Cloud, Data, Software Development, Big Data</t>
+          <t>Backend, architecture, project management</t>
         </is>
       </c>
       <c r="K902" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L902" t="n">
-        <v>300000</v>
+        <v>130000</v>
       </c>
       <c r="M902" t="inlineStr">
         <is>
-          <t>Myself</t>
+          <t>Agencies</t>
         </is>
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>Finland, Abroad</t>
+          <t>Abroad</t>
         </is>
       </c>
       <c r="O902" t="inlineStr"/>
@@ -86341,7 +86351,7 @@
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
-        <v>45175.50163179398</v>
+        <v>45175.35538100694</v>
       </c>
       <c r="B903" t="inlineStr">
         <is>
@@ -86355,20 +86365,24 @@
       </c>
       <c r="D903" t="inlineStr">
         <is>
-          <t>41-45</t>
-        </is>
-      </c>
-      <c r="E903" t="inlineStr"/>
+          <t>26-30</t>
+        </is>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
       <c r="F903" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G903" t="inlineStr">
         <is>
-          <t>Insinööri</t>
+          <t>Bachelors degree in ICT</t>
         </is>
       </c>
       <c r="H903" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -86377,29 +86391,37 @@
       <c r="M903" t="inlineStr"/>
       <c r="N903" t="inlineStr"/>
       <c r="O903" t="inlineStr"/>
-      <c r="P903" t="inlineStr"/>
-      <c r="Q903" t="inlineStr"/>
+      <c r="P903" t="inlineStr">
+        <is>
+          <t>PK-seutu</t>
+        </is>
+      </c>
+      <c r="Q903" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
       <c r="R903" t="n">
         <v>1</v>
       </c>
       <c r="S903" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="T903" t="inlineStr">
         <is>
-          <t>Architect</t>
+          <t>Backend developer</t>
         </is>
       </c>
       <c r="U903" t="n">
-        <v>7400</v>
+        <v>3900</v>
       </c>
       <c r="V903" t="n">
-        <v>91250</v>
+        <v>50000</v>
       </c>
       <c r="W903" t="inlineStr"/>
       <c r="X903" t="inlineStr">
         <is>
-          <t>Kyllä</t>
+          <t>Ei</t>
         </is>
       </c>
       <c r="Y903" t="inlineStr"/>
@@ -86412,23 +86434,23 @@
       </c>
       <c r="AC903" t="inlineStr">
         <is>
-          <t>Architect</t>
+          <t>Backend developer</t>
         </is>
       </c>
       <c r="AD903" t="n">
-        <v>7604.166666666667</v>
+        <v>4166.666666666667</v>
       </c>
       <c r="AE903" t="n">
-        <v>7604.166666666667</v>
+        <v>4166.666666666667</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
-        <v>45176.46846331019</v>
+        <v>45175.45504726852</v>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>Palkansaaja</t>
+          <t>Laskuttaja</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -86438,63 +86460,57 @@
       </c>
       <c r="D904" t="inlineStr">
         <is>
-          <t>21-25</t>
-        </is>
-      </c>
-      <c r="E904" t="inlineStr">
-        <is>
-          <t>mies</t>
-        </is>
-      </c>
+          <t>36-40</t>
+        </is>
+      </c>
+      <c r="E904" t="inlineStr"/>
       <c r="F904" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G904" t="inlineStr">
         <is>
-          <t>University dropout</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="H904" t="n">
-        <v>30</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
-      <c r="L904" t="inlineStr"/>
-      <c r="M904" t="inlineStr"/>
-      <c r="N904" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="I904" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J904" t="inlineStr">
+        <is>
+          <t>Architecture, Cloud, Data, Software Development, Big Data</t>
+        </is>
+      </c>
+      <c r="K904" t="n">
+        <v>120</v>
+      </c>
+      <c r="L904" t="n">
+        <v>300000</v>
+      </c>
+      <c r="M904" t="inlineStr">
+        <is>
+          <t>Myself</t>
+        </is>
+      </c>
+      <c r="N904" t="inlineStr">
+        <is>
+          <t>Finland, Abroad</t>
+        </is>
+      </c>
       <c r="O904" t="inlineStr"/>
-      <c r="P904" t="inlineStr">
-        <is>
-          <t>Oulu</t>
-        </is>
-      </c>
-      <c r="Q904" t="inlineStr">
-        <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="R904" t="n">
-        <v>1</v>
-      </c>
-      <c r="S904" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T904" t="inlineStr">
-        <is>
-          <t>Full-stack developer</t>
-        </is>
-      </c>
-      <c r="U904" t="n">
-        <v>3000</v>
-      </c>
-      <c r="V904" t="n">
-        <v>36000</v>
-      </c>
+      <c r="P904" t="inlineStr"/>
+      <c r="Q904" t="inlineStr"/>
+      <c r="R904" t="inlineStr"/>
+      <c r="S904" t="inlineStr"/>
+      <c r="T904" t="inlineStr"/>
+      <c r="U904" t="inlineStr"/>
+      <c r="V904" t="inlineStr"/>
       <c r="W904" t="inlineStr"/>
       <c r="X904" t="inlineStr">
         <is>
-          <t>Kyllä</t>
+          <t>Muu</t>
         </is>
       </c>
       <c r="Y904" t="inlineStr"/>
@@ -86505,21 +86521,13 @@
           <t>en</t>
         </is>
       </c>
-      <c r="AC904" t="inlineStr">
-        <is>
-          <t>*Full-stack Developer</t>
-        </is>
-      </c>
-      <c r="AD904" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AE904" t="n">
-        <v>3000</v>
-      </c>
+      <c r="AC904" t="inlineStr"/>
+      <c r="AD904" t="inlineStr"/>
+      <c r="AE904" t="inlineStr"/>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
-        <v>45176.48026134259</v>
+        <v>45175.50163179398</v>
       </c>
       <c r="B905" t="inlineStr">
         <is>
@@ -86533,20 +86541,20 @@
       </c>
       <c r="D905" t="inlineStr">
         <is>
-          <t>36-40</t>
+          <t>41-45</t>
         </is>
       </c>
       <c r="E905" t="inlineStr"/>
       <c r="F905" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G905" t="inlineStr">
         <is>
-          <t>University of applied sciences.</t>
+          <t>Insinööri</t>
         </is>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -86555,35 +86563,29 @@
       <c r="M905" t="inlineStr"/>
       <c r="N905" t="inlineStr"/>
       <c r="O905" t="inlineStr"/>
-      <c r="P905" t="inlineStr">
-        <is>
-          <t>PK-seutu</t>
-        </is>
-      </c>
-      <c r="Q905" t="inlineStr">
-        <is>
-          <t>Consulting</t>
-        </is>
-      </c>
+      <c r="P905" t="inlineStr"/>
+      <c r="Q905" t="inlineStr"/>
       <c r="R905" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="S905" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="T905" t="inlineStr">
         <is>
-          <t>Senior developer</t>
+          <t>Architect</t>
         </is>
       </c>
       <c r="U905" t="n">
-        <v>4080</v>
-      </c>
-      <c r="V905" t="inlineStr"/>
+        <v>7400</v>
+      </c>
+      <c r="V905" t="n">
+        <v>91250</v>
+      </c>
       <c r="W905" t="inlineStr"/>
       <c r="X905" t="inlineStr">
         <is>
-          <t>Ei</t>
+          <t>Kyllä</t>
         </is>
       </c>
       <c r="Y905" t="inlineStr"/>
@@ -86596,15 +86598,19 @@
       </c>
       <c r="AC905" t="inlineStr">
         <is>
-          <t>*Senior Developer</t>
-        </is>
-      </c>
-      <c r="AD905" t="inlineStr"/>
-      <c r="AE905" t="inlineStr"/>
+          <t>Architect</t>
+        </is>
+      </c>
+      <c r="AD905" t="n">
+        <v>7604.166666666667</v>
+      </c>
+      <c r="AE905" t="n">
+        <v>7604.166666666667</v>
+      </c>
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
-        <v>45176.49212186343</v>
+        <v>45176.46846331019</v>
       </c>
       <c r="B906" t="inlineStr">
         <is>
@@ -86618,7 +86624,7 @@
       </c>
       <c r="D906" t="inlineStr">
         <is>
-          <t>26-30</t>
+          <t>21-25</t>
         </is>
       </c>
       <c r="E906" t="inlineStr">
@@ -86627,15 +86633,15 @@
         </is>
       </c>
       <c r="F906" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G906" t="inlineStr">
         <is>
-          <t>University of Applied Sciences, Bachelor</t>
+          <t>University dropout</t>
         </is>
       </c>
       <c r="H906" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -86646,7 +86652,7 @@
       <c r="O906" t="inlineStr"/>
       <c r="P906" t="inlineStr">
         <is>
-          <t>PK-seutu</t>
+          <t>Oulu</t>
         </is>
       </c>
       <c r="Q906" t="inlineStr">
@@ -86655,33 +86661,29 @@
         </is>
       </c>
       <c r="R906" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S906" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T906" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Full-stack developer</t>
         </is>
       </c>
       <c r="U906" t="n">
-        <v>4050</v>
+        <v>3000</v>
       </c>
       <c r="V906" t="n">
-        <v>46000</v>
+        <v>36000</v>
       </c>
       <c r="W906" t="inlineStr"/>
       <c r="X906" t="inlineStr">
         <is>
-          <t>Muu</t>
-        </is>
-      </c>
-      <c r="Y906" t="inlineStr">
-        <is>
-          <t>I don't know</t>
-        </is>
-      </c>
+          <t>Kyllä</t>
+        </is>
+      </c>
+      <c r="Y906" t="inlineStr"/>
       <c r="Z906" t="inlineStr"/>
       <c r="AA906" t="inlineStr"/>
       <c r="AB906" t="inlineStr">
@@ -86691,19 +86693,19 @@
       </c>
       <c r="AC906" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>*Full-stack Developer</t>
         </is>
       </c>
       <c r="AD906" t="n">
-        <v>3833.333333333333</v>
+        <v>3000</v>
       </c>
       <c r="AE906" t="n">
-        <v>4791.666666666667</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
-        <v>45177.3540625926</v>
+        <v>45176.48026134259</v>
       </c>
       <c r="B907" t="inlineStr">
         <is>
@@ -86720,21 +86722,17 @@
           <t>36-40</t>
         </is>
       </c>
-      <c r="E907" t="inlineStr">
-        <is>
-          <t>nainen</t>
-        </is>
-      </c>
+      <c r="E907" t="inlineStr"/>
       <c r="F907" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G907" t="inlineStr">
         <is>
-          <t>AMK</t>
+          <t>University of applied sciences.</t>
         </is>
       </c>
       <c r="H907" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -86750,31 +86748,25 @@
       </c>
       <c r="Q907" t="inlineStr">
         <is>
-          <t>Product company with software as their core business</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="R907" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="S907" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="T907" t="inlineStr">
         <is>
-          <t>Senior frontend developer and manager</t>
+          <t>Senior developer</t>
         </is>
       </c>
       <c r="U907" t="n">
-        <v>4300</v>
-      </c>
-      <c r="V907" t="n">
-        <v>54000</v>
-      </c>
-      <c r="W907" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salary, vacation money, benefit for culture and sports </t>
-        </is>
-      </c>
+        <v>4080</v>
+      </c>
+      <c r="V907" t="inlineStr"/>
+      <c r="W907" t="inlineStr"/>
       <c r="X907" t="inlineStr">
         <is>
           <t>Ei</t>
@@ -86782,11 +86774,7 @@
       </c>
       <c r="Y907" t="inlineStr"/>
       <c r="Z907" t="inlineStr"/>
-      <c r="AA907" t="inlineStr">
-        <is>
-          <t>It's hard to know if salary is competitive if we do not have a baseline</t>
-        </is>
-      </c>
+      <c r="AA907" t="inlineStr"/>
       <c r="AB907" t="inlineStr">
         <is>
           <t>en</t>
@@ -86794,19 +86782,15 @@
       </c>
       <c r="AC907" t="inlineStr">
         <is>
-          <t>Senior frontend developer and manager</t>
-        </is>
-      </c>
-      <c r="AD907" t="n">
-        <v>4500</v>
-      </c>
-      <c r="AE907" t="n">
-        <v>4500</v>
-      </c>
+          <t>*Senior Developer</t>
+        </is>
+      </c>
+      <c r="AD907" t="inlineStr"/>
+      <c r="AE907" t="inlineStr"/>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
-        <v>45177.49436091435</v>
+        <v>45176.49212186343</v>
       </c>
       <c r="B908" t="inlineStr">
         <is>
@@ -86820,24 +86804,24 @@
       </c>
       <c r="D908" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>26-30</t>
         </is>
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t>nainen</t>
+          <t>mies</t>
         </is>
       </c>
       <c r="F908" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G908" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bachelor of Engineering </t>
+          <t>University of Applied Sciences, Bachelor</t>
         </is>
       </c>
       <c r="H908" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -86853,37 +86837,37 @@
       </c>
       <c r="Q908" t="inlineStr">
         <is>
-          <t>Product company with software as their core business</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="R908" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S908" t="n">
         <v>1</v>
       </c>
-      <c r="S908" t="n">
-        <v>0.1</v>
-      </c>
       <c r="T908" t="inlineStr">
         <is>
-          <t>IOS developer</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="U908" t="n">
-        <v>6000</v>
+        <v>4050</v>
       </c>
       <c r="V908" t="n">
-        <v>72000</v>
-      </c>
-      <c r="W908" t="inlineStr">
-        <is>
-          <t>no benefits at all</t>
-        </is>
-      </c>
+        <v>46000</v>
+      </c>
+      <c r="W908" t="inlineStr"/>
       <c r="X908" t="inlineStr">
         <is>
-          <t>Ei</t>
-        </is>
-      </c>
-      <c r="Y908" t="inlineStr"/>
+          <t>Muu</t>
+        </is>
+      </c>
+      <c r="Y908" t="inlineStr">
+        <is>
+          <t>I don't know</t>
+        </is>
+      </c>
       <c r="Z908" t="inlineStr"/>
       <c r="AA908" t="inlineStr"/>
       <c r="AB908" t="inlineStr">
@@ -86893,19 +86877,19 @@
       </c>
       <c r="AC908" t="inlineStr">
         <is>
-          <t>IOS developer</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="AD908" t="n">
-        <v>6000</v>
+        <v>3833.333333333333</v>
       </c>
       <c r="AE908" t="n">
-        <v>6000</v>
+        <v>4791.666666666667</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
-        <v>45177.53407864583</v>
+        <v>45177.3540625926</v>
       </c>
       <c r="B909" t="inlineStr">
         <is>
@@ -86919,24 +86903,24 @@
       </c>
       <c r="D909" t="inlineStr">
         <is>
-          <t>26-30</t>
+          <t>36-40</t>
         </is>
       </c>
       <c r="E909" t="inlineStr">
         <is>
-          <t>mies</t>
+          <t>nainen</t>
         </is>
       </c>
       <c r="F909" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G909" t="inlineStr">
         <is>
-          <t>M.Sc. in Business Administration</t>
+          <t>AMK</t>
         </is>
       </c>
       <c r="H909" t="n">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -86959,32 +86943,36 @@
         <v>1</v>
       </c>
       <c r="S909" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="T909" t="inlineStr">
         <is>
-          <t>Process Developer / Technical Writer</t>
+          <t>Senior frontend developer and manager</t>
         </is>
       </c>
       <c r="U909" t="n">
-        <v>3900</v>
+        <v>4300</v>
       </c>
       <c r="V909" t="n">
-        <v>52000</v>
-      </c>
-      <c r="W909" t="inlineStr"/>
+        <v>54000</v>
+      </c>
+      <c r="W909" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salary, vacation money, benefit for culture and sports </t>
+        </is>
+      </c>
       <c r="X909" t="inlineStr">
         <is>
-          <t>Muu</t>
-        </is>
-      </c>
-      <c r="Y909" t="inlineStr">
-        <is>
-          <t>I don't know</t>
-        </is>
-      </c>
+          <t>Ei</t>
+        </is>
+      </c>
+      <c r="Y909" t="inlineStr"/>
       <c r="Z909" t="inlineStr"/>
-      <c r="AA909" t="inlineStr"/>
+      <c r="AA909" t="inlineStr">
+        <is>
+          <t>It's hard to know if salary is competitive if we do not have a baseline</t>
+        </is>
+      </c>
       <c r="AB909" t="inlineStr">
         <is>
           <t>en</t>
@@ -86992,19 +86980,19 @@
       </c>
       <c r="AC909" t="inlineStr">
         <is>
-          <t>Process Developer / Technical Writer</t>
+          <t>Senior frontend developer and manager</t>
         </is>
       </c>
       <c r="AD909" t="n">
-        <v>4333.333333333333</v>
+        <v>4500</v>
       </c>
       <c r="AE909" t="n">
-        <v>4333.333333333333</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
-        <v>45177.54959166667</v>
+        <v>45177.49436091435</v>
       </c>
       <c r="B910" t="inlineStr">
         <is>
@@ -87023,19 +87011,19 @@
       </c>
       <c r="E910" t="inlineStr">
         <is>
-          <t>mies</t>
+          <t>nainen</t>
         </is>
       </c>
       <c r="F910" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G910" t="inlineStr">
         <is>
-          <t>Bachelor of Science</t>
+          <t xml:space="preserve">Bachelor of Engineering </t>
         </is>
       </c>
       <c r="H910" t="n">
-        <v>2.09</v>
+        <v>1</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -87058,22 +87046,22 @@
         <v>1</v>
       </c>
       <c r="S910" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="T910" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>IOS developer</t>
         </is>
       </c>
       <c r="U910" t="n">
-        <v>5310</v>
+        <v>6000</v>
       </c>
       <c r="V910" t="n">
-        <v>66375</v>
+        <v>72000</v>
       </c>
       <c r="W910" t="inlineStr">
         <is>
-          <t>Salary and holiday pay based on collective agreement</t>
+          <t>no benefits at all</t>
         </is>
       </c>
       <c r="X910" t="inlineStr">
@@ -87091,19 +87079,19 @@
       </c>
       <c r="AC910" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>IOS developer</t>
         </is>
       </c>
       <c r="AD910" t="n">
-        <v>5531.25</v>
+        <v>6000</v>
       </c>
       <c r="AE910" t="n">
-        <v>5531.25</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
-        <v>45177.55072087963</v>
+        <v>45177.53407864583</v>
       </c>
       <c r="B911" t="inlineStr">
         <is>
@@ -87130,11 +87118,11 @@
       </c>
       <c r="G911" t="inlineStr">
         <is>
-          <t>Tietotekniikan DI</t>
+          <t>M.Sc. in Business Administration</t>
         </is>
       </c>
       <c r="H911" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -87150,37 +87138,37 @@
       </c>
       <c r="Q911" t="inlineStr">
         <is>
-          <t>Consulting</t>
+          <t>Product company with software as their core business</t>
         </is>
       </c>
       <c r="R911" t="n">
         <v>1</v>
       </c>
       <c r="S911" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="T911" t="inlineStr">
         <is>
-          <t>Mobile developer</t>
+          <t>Process Developer / Technical Writer</t>
         </is>
       </c>
       <c r="U911" t="n">
-        <v>4800</v>
+        <v>3900</v>
       </c>
       <c r="V911" t="n">
-        <v>60000</v>
-      </c>
-      <c r="W911" t="inlineStr">
-        <is>
-          <t>Tuntipalkka</t>
-        </is>
-      </c>
+        <v>52000</v>
+      </c>
+      <c r="W911" t="inlineStr"/>
       <c r="X911" t="inlineStr">
         <is>
-          <t>Kyllä</t>
-        </is>
-      </c>
-      <c r="Y911" t="inlineStr"/>
+          <t>Muu</t>
+        </is>
+      </c>
+      <c r="Y911" t="inlineStr">
+        <is>
+          <t>I don't know</t>
+        </is>
+      </c>
       <c r="Z911" t="inlineStr"/>
       <c r="AA911" t="inlineStr"/>
       <c r="AB911" t="inlineStr">
@@ -87190,19 +87178,19 @@
       </c>
       <c r="AC911" t="inlineStr">
         <is>
-          <t>Mobile developer</t>
+          <t>Process Developer / Technical Writer</t>
         </is>
       </c>
       <c r="AD911" t="n">
-        <v>5000</v>
+        <v>4333.333333333333</v>
       </c>
       <c r="AE911" t="n">
-        <v>5000</v>
+        <v>4333.333333333333</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
-        <v>45177.55276238426</v>
+        <v>45177.54959166667</v>
       </c>
       <c r="B912" t="inlineStr">
         <is>
@@ -87216,24 +87204,24 @@
       </c>
       <c r="D912" t="inlineStr">
         <is>
-          <t>26-30</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E912" t="inlineStr">
         <is>
-          <t>nainen</t>
+          <t>mies</t>
         </is>
       </c>
       <c r="F912" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G912" t="inlineStr">
         <is>
-          <t>AMK Insinööri</t>
+          <t>Bachelor of Science</t>
         </is>
       </c>
       <c r="H912" t="n">
-        <v>10</v>
+        <v>2.09</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -87241,11 +87229,7 @@
       <c r="L912" t="inlineStr"/>
       <c r="M912" t="inlineStr"/>
       <c r="N912" t="inlineStr"/>
-      <c r="O912" t="inlineStr">
-        <is>
-          <t>Wolt</t>
-        </is>
-      </c>
+      <c r="O912" t="inlineStr"/>
       <c r="P912" t="inlineStr">
         <is>
           <t>PK-seutu</t>
@@ -87260,21 +87244,27 @@
         <v>1</v>
       </c>
       <c r="S912" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="T912" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="U912" t="n">
-        <v>4950</v>
-      </c>
-      <c r="V912" t="inlineStr"/>
-      <c r="W912" t="inlineStr"/>
+        <v>5310</v>
+      </c>
+      <c r="V912" t="n">
+        <v>66375</v>
+      </c>
+      <c r="W912" t="inlineStr">
+        <is>
+          <t>Salary and holiday pay based on collective agreement</t>
+        </is>
+      </c>
       <c r="X912" t="inlineStr">
         <is>
-          <t>Kyllä</t>
+          <t>Ei</t>
         </is>
       </c>
       <c r="Y912" t="inlineStr"/>
@@ -87287,15 +87277,19 @@
       </c>
       <c r="AC912" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="AD912" t="inlineStr"/>
-      <c r="AE912" t="inlineStr"/>
+          <t>Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="AD912" t="n">
+        <v>5531.25</v>
+      </c>
+      <c r="AE912" t="n">
+        <v>5531.25</v>
+      </c>
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
-        <v>45177.55607520833</v>
+        <v>45177.55072087963</v>
       </c>
       <c r="B913" t="inlineStr">
         <is>
@@ -87309,7 +87303,7 @@
       </c>
       <c r="D913" t="inlineStr">
         <is>
-          <t>36-40</t>
+          <t>26-30</t>
         </is>
       </c>
       <c r="E913" t="inlineStr">
@@ -87318,15 +87312,15 @@
         </is>
       </c>
       <c r="F913" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G913" t="inlineStr">
         <is>
-          <t>Doctoral Degree</t>
+          <t>Tietotekniikan DI</t>
         </is>
       </c>
       <c r="H913" t="n">
-        <v>3.5</v>
+        <v>33</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -87337,39 +87331,39 @@
       <c r="O913" t="inlineStr"/>
       <c r="P913" t="inlineStr">
         <is>
-          <t>Jyväskylä</t>
+          <t>PK-seutu</t>
         </is>
       </c>
       <c r="Q913" t="inlineStr">
         <is>
-          <t>A company where software is support role (for example banks or healthcare)</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="R913" t="n">
         <v>1</v>
       </c>
       <c r="S913" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T913" t="inlineStr">
         <is>
-          <t>Senior sensor engineer and project manager</t>
+          <t>Mobile developer</t>
         </is>
       </c>
       <c r="U913" t="n">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="V913" t="n">
-        <v>63000</v>
+        <v>60000</v>
       </c>
       <c r="W913" t="inlineStr">
         <is>
-          <t>Some stock option program</t>
+          <t>Tuntipalkka</t>
         </is>
       </c>
       <c r="X913" t="inlineStr">
         <is>
-          <t>Ei</t>
+          <t>Kyllä</t>
         </is>
       </c>
       <c r="Y913" t="inlineStr"/>
@@ -87382,19 +87376,19 @@
       </c>
       <c r="AC913" t="inlineStr">
         <is>
-          <t>Senior sensor engineer and project manager</t>
+          <t>Mobile developer</t>
         </is>
       </c>
       <c r="AD913" t="n">
-        <v>5250</v>
+        <v>5000</v>
       </c>
       <c r="AE913" t="n">
-        <v>5250</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
-        <v>45177.55887430556</v>
+        <v>45177.55276238426</v>
       </c>
       <c r="B914" t="inlineStr">
         <is>
@@ -87408,24 +87402,24 @@
       </c>
       <c r="D914" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>26-30</t>
         </is>
       </c>
       <c r="E914" t="inlineStr">
         <is>
-          <t>mies</t>
+          <t>nainen</t>
         </is>
       </c>
       <c r="F914" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G914" t="inlineStr">
         <is>
-          <t>Datanome, BCompSc</t>
+          <t>AMK Insinööri</t>
         </is>
       </c>
       <c r="H914" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -87433,10 +87427,14 @@
       <c r="L914" t="inlineStr"/>
       <c r="M914" t="inlineStr"/>
       <c r="N914" t="inlineStr"/>
-      <c r="O914" t="inlineStr"/>
+      <c r="O914" t="inlineStr">
+        <is>
+          <t>Wolt</t>
+        </is>
+      </c>
       <c r="P914" t="inlineStr">
         <is>
-          <t>Working from home (Turku) for a US-based company</t>
+          <t>PK-seutu</t>
         </is>
       </c>
       <c r="Q914" t="inlineStr">
@@ -87452,36 +87450,22 @@
       </c>
       <c r="T914" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="U914" t="n">
-        <v>10920</v>
-      </c>
-      <c r="V914" t="n">
-        <v>136000</v>
-      </c>
-      <c r="W914" t="inlineStr">
-        <is>
-          <t>Fringe benefit, workstation upgrades and virtual taco handouts between employees (appreciation)</t>
-        </is>
-      </c>
+        <v>4950</v>
+      </c>
+      <c r="V914" t="inlineStr"/>
+      <c r="W914" t="inlineStr"/>
       <c r="X914" t="inlineStr">
         <is>
           <t>Kyllä</t>
         </is>
       </c>
       <c r="Y914" t="inlineStr"/>
-      <c r="Z914" t="inlineStr">
-        <is>
-          <t>While I work for a US-based company, I'm hired via Deel</t>
-        </is>
-      </c>
-      <c r="AA914" t="inlineStr">
-        <is>
-          <t>Nothing comes to mind, this was great and thanks for doing these every year!</t>
-        </is>
-      </c>
+      <c r="Z914" t="inlineStr"/>
+      <c r="AA914" t="inlineStr"/>
       <c r="AB914" t="inlineStr">
         <is>
           <t>en</t>
@@ -87489,19 +87473,15 @@
       </c>
       <c r="AC914" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
-        </is>
-      </c>
-      <c r="AD914" t="n">
-        <v>11333.33333333333</v>
-      </c>
-      <c r="AE914" t="n">
-        <v>11333.33333333333</v>
-      </c>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="AD914" t="inlineStr"/>
+      <c r="AE914" t="inlineStr"/>
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
-        <v>45177.55983584491</v>
+        <v>45177.55607520833</v>
       </c>
       <c r="B915" t="inlineStr">
         <is>
@@ -87515,24 +87495,24 @@
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>36-40</t>
         </is>
       </c>
       <c r="E915" t="inlineStr">
         <is>
-          <t>nainen</t>
+          <t>mies</t>
         </is>
       </c>
       <c r="F915" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G915" t="inlineStr">
         <is>
-          <t>Bachelor degree in CS</t>
+          <t>Doctoral Degree</t>
         </is>
       </c>
       <c r="H915" t="n">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -87543,7 +87523,7 @@
       <c r="O915" t="inlineStr"/>
       <c r="P915" t="inlineStr">
         <is>
-          <t>PK-seutu</t>
+          <t>Jyväskylä</t>
         </is>
       </c>
       <c r="Q915" t="inlineStr">
@@ -87555,27 +87535,27 @@
         <v>1</v>
       </c>
       <c r="S915" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T915" t="inlineStr">
         <is>
-          <t>Software developer</t>
+          <t>Senior sensor engineer and project manager</t>
         </is>
       </c>
       <c r="U915" t="n">
-        <v>6000</v>
+        <v>5100</v>
       </c>
       <c r="V915" t="n">
-        <v>100000</v>
+        <v>63000</v>
       </c>
       <c r="W915" t="inlineStr">
         <is>
-          <t>Salary + stock options</t>
+          <t>Some stock option program</t>
         </is>
       </c>
       <c r="X915" t="inlineStr">
         <is>
-          <t>Kyllä</t>
+          <t>Ei</t>
         </is>
       </c>
       <c r="Y915" t="inlineStr"/>
@@ -87588,19 +87568,19 @@
       </c>
       <c r="AC915" t="inlineStr">
         <is>
-          <t>Software developer</t>
+          <t>Senior sensor engineer and project manager</t>
         </is>
       </c>
       <c r="AD915" t="n">
-        <v>8333.333333333334</v>
+        <v>5250</v>
       </c>
       <c r="AE915" t="n">
-        <v>8333.333333333334</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
-        <v>45177.56271079861</v>
+        <v>45177.55983584491</v>
       </c>
       <c r="B916" t="inlineStr">
         <is>
@@ -87619,19 +87599,19 @@
       </c>
       <c r="E916" t="inlineStr">
         <is>
-          <t>mies</t>
+          <t>nainen</t>
         </is>
       </c>
       <c r="F916" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G916" t="inlineStr">
         <is>
-          <t>Datanome, BCompSc</t>
+          <t>Bachelor degree in CS</t>
         </is>
       </c>
       <c r="H916" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -87642,12 +87622,12 @@
       <c r="O916" t="inlineStr"/>
       <c r="P916" t="inlineStr">
         <is>
-          <t>I work from home (Turku) for a US-based company</t>
+          <t>PK-seutu</t>
         </is>
       </c>
       <c r="Q916" t="inlineStr">
         <is>
-          <t>Product company with software as their core business</t>
+          <t>A company where software is support role (for example banks or healthcare)</t>
         </is>
       </c>
       <c r="R916" t="n">
@@ -87658,18 +87638,18 @@
       </c>
       <c r="T916" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Software developer</t>
         </is>
       </c>
       <c r="U916" t="n">
-        <v>10920</v>
+        <v>6000</v>
       </c>
       <c r="V916" t="n">
-        <v>136000</v>
+        <v>100000</v>
       </c>
       <c r="W916" t="inlineStr">
         <is>
-          <t>Fringe benefit, workstation upgrades, and virtual tacos gifted between employees (appreciation)</t>
+          <t>Salary + stock options</t>
         </is>
       </c>
       <c r="X916" t="inlineStr">
@@ -87678,16 +87658,8 @@
         </is>
       </c>
       <c r="Y916" t="inlineStr"/>
-      <c r="Z916" t="inlineStr">
-        <is>
-          <t>While I work for a US-based company, I'm hired via Deel</t>
-        </is>
-      </c>
-      <c r="AA916" t="inlineStr">
-        <is>
-          <t>SUBMITTED TWICE, SORRY!! I had two of these tabs open and my previous submission was partial (don't know what was missing so I submitted the correct one now). Hope you can filter out the previous one. Again, sorry for the mixup.</t>
-        </is>
-      </c>
+      <c r="Z916" t="inlineStr"/>
+      <c r="AA916" t="inlineStr"/>
       <c r="AB916" t="inlineStr">
         <is>
           <t>en</t>
@@ -87695,19 +87667,19 @@
       </c>
       <c r="AC916" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Software developer</t>
         </is>
       </c>
       <c r="AD916" t="n">
-        <v>11333.33333333333</v>
+        <v>8333.333333333334</v>
       </c>
       <c r="AE916" t="n">
-        <v>11333.33333333333</v>
+        <v>8333.333333333334</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
-        <v>45177.5672928125</v>
+        <v>45177.56271079861</v>
       </c>
       <c r="B917" t="inlineStr">
         <is>
@@ -87721,7 +87693,7 @@
       </c>
       <c r="D917" t="inlineStr">
         <is>
-          <t>36-40</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E917" t="inlineStr">
@@ -87730,15 +87702,15 @@
         </is>
       </c>
       <c r="F917" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G917" t="inlineStr">
         <is>
-          <t>Master of Computer Engineering</t>
+          <t>Datanome, BCompSc</t>
         </is>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -87749,34 +87721,34 @@
       <c r="O917" t="inlineStr"/>
       <c r="P917" t="inlineStr">
         <is>
-          <t>PK-seutu</t>
+          <t>I work from home (Turku) for a US-based company</t>
         </is>
       </c>
       <c r="Q917" t="inlineStr">
         <is>
-          <t>A company where software is support role (for example banks or healthcare)</t>
+          <t>Product company with software as their core business</t>
         </is>
       </c>
       <c r="R917" t="n">
         <v>1</v>
       </c>
       <c r="S917" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T917" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="U917" t="n">
-        <v>5700</v>
+        <v>10920</v>
       </c>
       <c r="V917" t="n">
-        <v>71000</v>
+        <v>136000</v>
       </c>
       <c r="W917" t="inlineStr">
         <is>
-          <t>Base + Bonus</t>
+          <t>Fringe benefit, workstation upgrades, and virtual tacos gifted between employees (appreciation)</t>
         </is>
       </c>
       <c r="X917" t="inlineStr">
@@ -87785,8 +87757,16 @@
         </is>
       </c>
       <c r="Y917" t="inlineStr"/>
-      <c r="Z917" t="inlineStr"/>
-      <c r="AA917" t="inlineStr"/>
+      <c r="Z917" t="inlineStr">
+        <is>
+          <t>While I work for a US-based company, I'm hired via Deel</t>
+        </is>
+      </c>
+      <c r="AA917" t="inlineStr">
+        <is>
+          <t>SUBMITTED TWICE, SORRY!! I had two of these tabs open and my previous submission was partial (don't know what was missing so I submitted the correct one now). Hope you can filter out the previous one. Again, sorry for the mixup.</t>
+        </is>
+      </c>
       <c r="AB917" t="inlineStr">
         <is>
           <t>en</t>
@@ -87794,19 +87774,19 @@
       </c>
       <c r="AC917" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="AD917" t="n">
-        <v>5916.666666666667</v>
+        <v>11333.33333333333</v>
       </c>
       <c r="AE917" t="n">
-        <v>5916.666666666667</v>
+        <v>11333.33333333333</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
-        <v>45177.56765260416</v>
+        <v>45177.5672928125</v>
       </c>
       <c r="B918" t="inlineStr">
         <is>
@@ -87829,25 +87809,23 @@
         </is>
       </c>
       <c r="F918" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G918" t="inlineStr">
         <is>
-          <t>MSc</t>
-        </is>
-      </c>
-      <c r="H918" t="inlineStr"/>
+          <t>Master of Computer Engineering</t>
+        </is>
+      </c>
+      <c r="H918" t="n">
+        <v>2</v>
+      </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr"/>
       <c r="L918" t="inlineStr"/>
       <c r="M918" t="inlineStr"/>
       <c r="N918" t="inlineStr"/>
-      <c r="O918" t="inlineStr">
-        <is>
-          <t>Tietoevry</t>
-        </is>
-      </c>
+      <c r="O918" t="inlineStr"/>
       <c r="P918" t="inlineStr">
         <is>
           <t>PK-seutu</t>
@@ -87855,27 +87833,31 @@
       </c>
       <c r="Q918" t="inlineStr">
         <is>
-          <t>Consulting</t>
+          <t>A company where software is support role (for example banks or healthcare)</t>
         </is>
       </c>
       <c r="R918" t="n">
         <v>1</v>
       </c>
       <c r="S918" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="T918" t="inlineStr">
         <is>
-          <t>Software developer</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="U918" t="n">
-        <v>3400</v>
+        <v>5700</v>
       </c>
       <c r="V918" t="n">
-        <v>0</v>
-      </c>
-      <c r="W918" t="inlineStr"/>
+        <v>71000</v>
+      </c>
+      <c r="W918" t="inlineStr">
+        <is>
+          <t>Base + Bonus</t>
+        </is>
+      </c>
       <c r="X918" t="inlineStr">
         <is>
           <t>Kyllä</t>
@@ -87891,19 +87873,19 @@
       </c>
       <c r="AC918" t="inlineStr">
         <is>
-          <t>Software developer</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="AD918" t="n">
-        <v>0</v>
+        <v>5916.666666666667</v>
       </c>
       <c r="AE918" t="n">
-        <v>0</v>
+        <v>5916.666666666667</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="2" t="n">
-        <v>45177.59095630787</v>
+        <v>45177.56765260416</v>
       </c>
       <c r="B919" t="inlineStr">
         <is>
@@ -87917,7 +87899,7 @@
       </c>
       <c r="D919" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>36-40</t>
         </is>
       </c>
       <c r="E919" t="inlineStr">
@@ -87926,23 +87908,25 @@
         </is>
       </c>
       <c r="F919" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G919" t="inlineStr">
         <is>
-          <t>Master of Science (Economics and Business Administration)</t>
-        </is>
-      </c>
-      <c r="H919" t="n">
-        <v>11</v>
-      </c>
+          <t>MSc</t>
+        </is>
+      </c>
+      <c r="H919" t="inlineStr"/>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr"/>
       <c r="L919" t="inlineStr"/>
       <c r="M919" t="inlineStr"/>
       <c r="N919" t="inlineStr"/>
-      <c r="O919" t="inlineStr"/>
+      <c r="O919" t="inlineStr">
+        <is>
+          <t>Tietoevry</t>
+        </is>
+      </c>
       <c r="P919" t="inlineStr">
         <is>
           <t>PK-seutu</t>
@@ -87950,34 +87934,30 @@
       </c>
       <c r="Q919" t="inlineStr">
         <is>
-          <t>Product company with software as their core business</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="R919" t="n">
         <v>1</v>
       </c>
       <c r="S919" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T919" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Software developer</t>
         </is>
       </c>
       <c r="U919" t="n">
-        <v>6700</v>
+        <v>3400</v>
       </c>
       <c r="V919" t="n">
-        <v>80000</v>
-      </c>
-      <c r="W919" t="inlineStr">
-        <is>
-          <t>Salary + equity</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W919" t="inlineStr"/>
       <c r="X919" t="inlineStr">
         <is>
-          <t>Ei</t>
+          <t>Kyllä</t>
         </is>
       </c>
       <c r="Y919" t="inlineStr"/>
@@ -87990,19 +87970,19 @@
       </c>
       <c r="AC919" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Software developer</t>
         </is>
       </c>
       <c r="AD919" t="n">
-        <v>6666.666666666667</v>
+        <v>0</v>
       </c>
       <c r="AE919" t="n">
-        <v>6666.666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="2" t="n">
-        <v>45177.59212136574</v>
+        <v>45177.59095630787</v>
       </c>
       <c r="B920" t="inlineStr">
         <is>
@@ -88016,7 +87996,7 @@
       </c>
       <c r="D920" t="inlineStr">
         <is>
-          <t>26-30</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E920" t="inlineStr">
@@ -88025,15 +88005,15 @@
         </is>
       </c>
       <c r="F920" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G920" t="inlineStr">
         <is>
-          <t>Master's in Computer Science</t>
+          <t>Master of Science (Economics and Business Administration)</t>
         </is>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -88056,7 +88036,7 @@
         <v>1</v>
       </c>
       <c r="S920" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="T920" t="inlineStr">
         <is>
@@ -88064,14 +88044,14 @@
         </is>
       </c>
       <c r="U920" t="n">
-        <v>4500</v>
+        <v>6700</v>
       </c>
       <c r="V920" t="n">
-        <v>54000</v>
+        <v>80000</v>
       </c>
       <c r="W920" t="inlineStr">
         <is>
-          <t>Stock options + pay</t>
+          <t>Salary + equity</t>
         </is>
       </c>
       <c r="X920" t="inlineStr">
@@ -88093,15 +88073,15 @@
         </is>
       </c>
       <c r="AD920" t="n">
-        <v>4500</v>
+        <v>6666.666666666667</v>
       </c>
       <c r="AE920" t="n">
-        <v>4500</v>
+        <v>6666.666666666667</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
-        <v>45177.60174563657</v>
+        <v>45177.59212136574</v>
       </c>
       <c r="B921" t="inlineStr">
         <is>
@@ -88115,7 +88095,7 @@
       </c>
       <c r="D921" t="inlineStr">
         <is>
-          <t>36-40</t>
+          <t>26-30</t>
         </is>
       </c>
       <c r="E921" t="inlineStr">
@@ -88124,11 +88104,11 @@
         </is>
       </c>
       <c r="F921" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G921" t="inlineStr">
         <is>
-          <t>Elementary</t>
+          <t>Master's in Computer Science</t>
         </is>
       </c>
       <c r="H921" t="n">
@@ -88143,34 +88123,34 @@
       <c r="O921" t="inlineStr"/>
       <c r="P921" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t>PK-seutu</t>
         </is>
       </c>
       <c r="Q921" t="inlineStr">
         <is>
-          <t>Consulting</t>
+          <t>Product company with software as their core business</t>
         </is>
       </c>
       <c r="R921" t="n">
         <v>1</v>
       </c>
       <c r="S921" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="T921" t="inlineStr">
         <is>
-          <t>Lead</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="U921" t="n">
-        <v>12100</v>
+        <v>4500</v>
       </c>
       <c r="V921" t="n">
-        <v>150000</v>
+        <v>54000</v>
       </c>
       <c r="W921" t="inlineStr">
         <is>
-          <t>Salary</t>
+          <t>Stock options + pay</t>
         </is>
       </c>
       <c r="X921" t="inlineStr">
@@ -88188,19 +88168,19 @@
       </c>
       <c r="AC921" t="inlineStr">
         <is>
-          <t>Lead</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="AD921" t="n">
-        <v>12500</v>
+        <v>4500</v>
       </c>
       <c r="AE921" t="n">
-        <v>12500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
-        <v>45177.61299427084</v>
+        <v>45177.60174563657</v>
       </c>
       <c r="B922" t="inlineStr">
         <is>
@@ -88214,7 +88194,7 @@
       </c>
       <c r="D922" t="inlineStr">
         <is>
-          <t>26-30</t>
+          <t>36-40</t>
         </is>
       </c>
       <c r="E922" t="inlineStr">
@@ -88223,15 +88203,15 @@
         </is>
       </c>
       <c r="F922" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G922" t="inlineStr">
         <is>
-          <t>High school</t>
+          <t>Elementary</t>
         </is>
       </c>
       <c r="H922" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -88242,7 +88222,7 @@
       <c r="O922" t="inlineStr"/>
       <c r="P922" t="inlineStr">
         <is>
-          <t>PK-seutu</t>
+          <t>Tampere</t>
         </is>
       </c>
       <c r="Q922" t="inlineStr">
@@ -88254,20 +88234,24 @@
         <v>1</v>
       </c>
       <c r="S922" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="T922" t="inlineStr">
         <is>
-          <t>Full stack developer</t>
+          <t>Lead</t>
         </is>
       </c>
       <c r="U922" t="n">
-        <v>3800</v>
+        <v>12100</v>
       </c>
       <c r="V922" t="n">
-        <v>45600</v>
-      </c>
-      <c r="W922" t="inlineStr"/>
+        <v>150000</v>
+      </c>
+      <c r="W922" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
       <c r="X922" t="inlineStr">
         <is>
           <t>Ei</t>
@@ -88283,19 +88267,19 @@
       </c>
       <c r="AC922" t="inlineStr">
         <is>
-          <t>*Full-stack Developer</t>
+          <t>Lead</t>
         </is>
       </c>
       <c r="AD922" t="n">
-        <v>3800</v>
+        <v>12500</v>
       </c>
       <c r="AE922" t="n">
-        <v>3800</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
-        <v>45177.63317269676</v>
+        <v>45177.61299427084</v>
       </c>
       <c r="B923" t="inlineStr">
         <is>
@@ -88318,15 +88302,15 @@
         </is>
       </c>
       <c r="F923" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G923" t="inlineStr">
         <is>
-          <t>Bachelor's degree in statistics</t>
+          <t>High school</t>
         </is>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -88342,41 +88326,33 @@
       </c>
       <c r="Q923" t="inlineStr">
         <is>
-          <t>Product company with software as their core business</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="R923" t="n">
         <v>1</v>
       </c>
       <c r="S923" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="T923" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Full stack developer</t>
         </is>
       </c>
       <c r="U923" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="V923" t="n">
-        <v>96000</v>
-      </c>
-      <c r="W923" t="inlineStr">
-        <is>
-          <t>salary + RSUs</t>
-        </is>
-      </c>
+        <v>45600</v>
+      </c>
+      <c r="W923" t="inlineStr"/>
       <c r="X923" t="inlineStr">
         <is>
-          <t>Muu</t>
-        </is>
-      </c>
-      <c r="Y923" t="inlineStr">
-        <is>
-          <t>Unsure</t>
-        </is>
-      </c>
+          <t>Ei</t>
+        </is>
+      </c>
+      <c r="Y923" t="inlineStr"/>
       <c r="Z923" t="inlineStr"/>
       <c r="AA923" t="inlineStr"/>
       <c r="AB923" t="inlineStr">
@@ -88386,19 +88362,19 @@
       </c>
       <c r="AC923" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>*Full-stack Developer</t>
         </is>
       </c>
       <c r="AD923" t="n">
-        <v>8000</v>
+        <v>3800</v>
       </c>
       <c r="AE923" t="n">
-        <v>8000</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="2" t="n">
-        <v>45177.67279266204</v>
+        <v>45177.63317269676</v>
       </c>
       <c r="B924" t="inlineStr">
         <is>
@@ -88412,7 +88388,7 @@
       </c>
       <c r="D924" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>26-30</t>
         </is>
       </c>
       <c r="E924" t="inlineStr">
@@ -88421,15 +88397,15 @@
         </is>
       </c>
       <c r="F924" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G924" t="inlineStr">
         <is>
-          <t>master's degree in information systems</t>
+          <t>Bachelor's degree in statistics</t>
         </is>
       </c>
       <c r="H924" t="n">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -88437,11 +88413,7 @@
       <c r="L924" t="inlineStr"/>
       <c r="M924" t="inlineStr"/>
       <c r="N924" t="inlineStr"/>
-      <c r="O924" t="inlineStr">
-        <is>
-          <t>Smartly.io</t>
-        </is>
-      </c>
+      <c r="O924" t="inlineStr"/>
       <c r="P924" t="inlineStr">
         <is>
           <t>PK-seutu</t>
@@ -88456,26 +88428,34 @@
         <v>1</v>
       </c>
       <c r="S924" t="n">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="T924" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="U924" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="V924" t="n">
-        <v>80000</v>
-      </c>
-      <c r="W924" t="inlineStr"/>
+        <v>96000</v>
+      </c>
+      <c r="W924" t="inlineStr">
+        <is>
+          <t>salary + RSUs</t>
+        </is>
+      </c>
       <c r="X924" t="inlineStr">
         <is>
-          <t>Kyllä</t>
-        </is>
-      </c>
-      <c r="Y924" t="inlineStr"/>
+          <t>Muu</t>
+        </is>
+      </c>
+      <c r="Y924" t="inlineStr">
+        <is>
+          <t>Unsure</t>
+        </is>
+      </c>
       <c r="Z924" t="inlineStr"/>
       <c r="AA924" t="inlineStr"/>
       <c r="AB924" t="inlineStr">
@@ -88485,19 +88465,19 @@
       </c>
       <c r="AC924" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="AD924" t="n">
-        <v>6666.666666666667</v>
+        <v>8000</v>
       </c>
       <c r="AE924" t="n">
-        <v>6666.666666666667</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="2" t="n">
-        <v>45177.7886658912</v>
+        <v>45177.67279266204</v>
       </c>
       <c r="B925" t="inlineStr">
         <is>
@@ -88511,7 +88491,7 @@
       </c>
       <c r="D925" t="inlineStr">
         <is>
-          <t>41-45</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E925" t="inlineStr">
@@ -88520,15 +88500,15 @@
         </is>
       </c>
       <c r="F925" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G925" t="inlineStr">
         <is>
-          <t>Bachelor</t>
+          <t>master's degree in information systems</t>
         </is>
       </c>
       <c r="H925" t="n">
-        <v>4</v>
+        <v>-20</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -88536,7 +88516,11 @@
       <c r="L925" t="inlineStr"/>
       <c r="M925" t="inlineStr"/>
       <c r="N925" t="inlineStr"/>
-      <c r="O925" t="inlineStr"/>
+      <c r="O925" t="inlineStr">
+        <is>
+          <t>Smartly.io</t>
+        </is>
+      </c>
       <c r="P925" t="inlineStr">
         <is>
           <t>PK-seutu</t>
@@ -88544,37 +88528,33 @@
       </c>
       <c r="Q925" t="inlineStr">
         <is>
-          <t>A company where software is support role (for example banks or healthcare)</t>
+          <t>Product company with software as their core business</t>
         </is>
       </c>
       <c r="R925" t="n">
         <v>1</v>
       </c>
       <c r="S925" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="T925" t="inlineStr">
         <is>
-          <t>Full stack software developer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="U925" t="n">
-        <v>5940</v>
+        <v>6500</v>
       </c>
       <c r="V925" t="n">
-        <v>73740</v>
+        <v>80000</v>
       </c>
       <c r="W925" t="inlineStr"/>
       <c r="X925" t="inlineStr">
         <is>
-          <t>Muu</t>
-        </is>
-      </c>
-      <c r="Y925" t="inlineStr">
-        <is>
-          <t>Don't know</t>
-        </is>
-      </c>
+          <t>Kyllä</t>
+        </is>
+      </c>
+      <c r="Y925" t="inlineStr"/>
       <c r="Z925" t="inlineStr"/>
       <c r="AA925" t="inlineStr"/>
       <c r="AB925" t="inlineStr">
@@ -88584,19 +88564,19 @@
       </c>
       <c r="AC925" t="inlineStr">
         <is>
-          <t>Full stack software developer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="AD925" t="n">
-        <v>6145</v>
+        <v>6666.666666666667</v>
       </c>
       <c r="AE925" t="n">
-        <v>6145</v>
+        <v>6666.666666666667</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
-        <v>45178.39371541666</v>
+        <v>45177.7886658912</v>
       </c>
       <c r="B926" t="inlineStr">
         <is>
@@ -88610,7 +88590,7 @@
       </c>
       <c r="D926" t="inlineStr">
         <is>
-          <t>51-55</t>
+          <t>41-45</t>
         </is>
       </c>
       <c r="E926" t="inlineStr">
@@ -88619,15 +88599,15 @@
         </is>
       </c>
       <c r="F926" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G926" t="inlineStr">
         <is>
-          <t>Matriculation examination</t>
+          <t>Bachelor</t>
         </is>
       </c>
       <c r="H926" t="n">
-        <v>6.16</v>
+        <v>4</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -88638,38 +88618,42 @@
       <c r="O926" t="inlineStr"/>
       <c r="P926" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t>PK-seutu</t>
         </is>
       </c>
       <c r="Q926" t="inlineStr">
         <is>
-          <t>Consulting</t>
+          <t>A company where software is support role (for example banks or healthcare)</t>
         </is>
       </c>
       <c r="R926" t="n">
         <v>1</v>
       </c>
       <c r="S926" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T926" t="inlineStr">
         <is>
-          <t>Cloud Specialist</t>
+          <t>Full stack software developer</t>
         </is>
       </c>
       <c r="U926" t="n">
-        <v>5650</v>
+        <v>5940</v>
       </c>
       <c r="V926" t="n">
-        <v>70625</v>
+        <v>73740</v>
       </c>
       <c r="W926" t="inlineStr"/>
       <c r="X926" t="inlineStr">
         <is>
-          <t>Kyllä</t>
-        </is>
-      </c>
-      <c r="Y926" t="inlineStr"/>
+          <t>Muu</t>
+        </is>
+      </c>
+      <c r="Y926" t="inlineStr">
+        <is>
+          <t>Don't know</t>
+        </is>
+      </c>
       <c r="Z926" t="inlineStr"/>
       <c r="AA926" t="inlineStr"/>
       <c r="AB926" t="inlineStr">
@@ -88679,19 +88663,19 @@
       </c>
       <c r="AC926" t="inlineStr">
         <is>
-          <t>Cloud Specialist</t>
+          <t>Full stack software developer</t>
         </is>
       </c>
       <c r="AD926" t="n">
-        <v>5885.416666666667</v>
+        <v>6145</v>
       </c>
       <c r="AE926" t="n">
-        <v>5885.416666666667</v>
+        <v>6145</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
-        <v>45180.3446077662</v>
+        <v>45178.39371541666</v>
       </c>
       <c r="B927" t="inlineStr">
         <is>
@@ -88705,7 +88689,7 @@
       </c>
       <c r="D927" t="inlineStr">
         <is>
-          <t>36-40</t>
+          <t>51-55</t>
         </is>
       </c>
       <c r="E927" t="inlineStr">
@@ -88714,15 +88698,15 @@
         </is>
       </c>
       <c r="F927" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G927" t="inlineStr">
         <is>
-          <t>AMK</t>
+          <t>Matriculation examination</t>
         </is>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>6.16</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -88733,7 +88717,7 @@
       <c r="O927" t="inlineStr"/>
       <c r="P927" t="inlineStr">
         <is>
-          <t>PK-seutu</t>
+          <t>Tampere</t>
         </is>
       </c>
       <c r="Q927" t="inlineStr">
@@ -88742,43 +88726,31 @@
         </is>
       </c>
       <c r="R927" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S927" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T927" t="inlineStr">
         <is>
-          <t>Hands-on architect</t>
+          <t>Cloud Specialist</t>
         </is>
       </c>
       <c r="U927" t="n">
-        <v>4200</v>
+        <v>5650</v>
       </c>
       <c r="V927" t="n">
-        <v>94000</v>
-      </c>
-      <c r="W927" t="inlineStr">
-        <is>
-          <t>Part salary, part dividends</t>
-        </is>
-      </c>
+        <v>70625</v>
+      </c>
+      <c r="W927" t="inlineStr"/>
       <c r="X927" t="inlineStr">
         <is>
           <t>Kyllä</t>
         </is>
       </c>
       <c r="Y927" t="inlineStr"/>
-      <c r="Z927" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA927" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You should ask about the ownership of the company, and the size of the ownership that the company is willing to give to regular employees. Great survey anyhow! </t>
-        </is>
-      </c>
+      <c r="Z927" t="inlineStr"/>
+      <c r="AA927" t="inlineStr"/>
       <c r="AB927" t="inlineStr">
         <is>
           <t>en</t>
@@ -88786,19 +88758,19 @@
       </c>
       <c r="AC927" t="inlineStr">
         <is>
-          <t>Hands-on architect</t>
+          <t>Cloud Specialist</t>
         </is>
       </c>
       <c r="AD927" t="n">
-        <v>7833.333333333333</v>
+        <v>5885.416666666667</v>
       </c>
       <c r="AE927" t="n">
-        <v>9791.666666666666</v>
+        <v>5885.416666666667</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
-        <v>45180.38616309028</v>
+        <v>45180.3446077662</v>
       </c>
       <c r="B928" t="inlineStr">
         <is>
@@ -88812,7 +88784,7 @@
       </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>41-45</t>
+          <t>36-40</t>
         </is>
       </c>
       <c r="E928" t="inlineStr">
@@ -88821,15 +88793,15 @@
         </is>
       </c>
       <c r="F928" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G928" t="inlineStr">
         <is>
-          <t>Bachelor of business administration, IT</t>
+          <t>AMK</t>
         </is>
       </c>
       <c r="H928" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -88840,7 +88812,7 @@
       <c r="O928" t="inlineStr"/>
       <c r="P928" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t>PK-seutu</t>
         </is>
       </c>
       <c r="Q928" t="inlineStr">
@@ -88849,31 +88821,43 @@
         </is>
       </c>
       <c r="R928" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S928" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T928" t="inlineStr">
         <is>
-          <t>Tech lead</t>
+          <t>Hands-on architect</t>
         </is>
       </c>
       <c r="U928" t="n">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="V928" t="n">
-        <v>62740</v>
-      </c>
-      <c r="W928" t="inlineStr"/>
+        <v>94000</v>
+      </c>
+      <c r="W928" t="inlineStr">
+        <is>
+          <t>Part salary, part dividends</t>
+        </is>
+      </c>
       <c r="X928" t="inlineStr">
         <is>
           <t>Kyllä</t>
         </is>
       </c>
       <c r="Y928" t="inlineStr"/>
-      <c r="Z928" t="inlineStr"/>
-      <c r="AA928" t="inlineStr"/>
+      <c r="Z928" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA928" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You should ask about the ownership of the company, and the size of the ownership that the company is willing to give to regular employees. Great survey anyhow! </t>
+        </is>
+      </c>
       <c r="AB928" t="inlineStr">
         <is>
           <t>en</t>
@@ -88881,19 +88865,19 @@
       </c>
       <c r="AC928" t="inlineStr">
         <is>
-          <t>Tech lead</t>
+          <t>Hands-on architect</t>
         </is>
       </c>
       <c r="AD928" t="n">
-        <v>5228.333333333333</v>
+        <v>7833.333333333333</v>
       </c>
       <c r="AE928" t="n">
-        <v>5228.333333333333</v>
+        <v>9791.666666666666</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
-        <v>45180.55412452546</v>
+        <v>45180.38616309028</v>
       </c>
       <c r="B929" t="inlineStr">
         <is>
@@ -88907,7 +88891,7 @@
       </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>46-50</t>
+          <t>41-45</t>
         </is>
       </c>
       <c r="E929" t="inlineStr">
@@ -88916,15 +88900,15 @@
         </is>
       </c>
       <c r="F929" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G929" t="inlineStr">
         <is>
-          <t>High school</t>
+          <t>Bachelor of business administration, IT</t>
         </is>
       </c>
       <c r="H929" t="n">
-        <v>5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -88947,18 +88931,18 @@
         <v>1</v>
       </c>
       <c r="S929" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="T929" t="inlineStr">
         <is>
-          <t>Software architect</t>
+          <t>Tech lead</t>
         </is>
       </c>
       <c r="U929" t="n">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="V929" t="n">
-        <v>70000</v>
+        <v>62740</v>
       </c>
       <c r="W929" t="inlineStr"/>
       <c r="X929" t="inlineStr">
@@ -88976,19 +88960,19 @@
       </c>
       <c r="AC929" t="inlineStr">
         <is>
-          <t>Software architect</t>
+          <t>Tech lead</t>
         </is>
       </c>
       <c r="AD929" t="n">
-        <v>5833.333333333333</v>
+        <v>5228.333333333333</v>
       </c>
       <c r="AE929" t="n">
-        <v>5833.333333333333</v>
+        <v>5228.333333333333</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="2" t="n">
-        <v>45180.60901697916</v>
+        <v>45180.55412452546</v>
       </c>
       <c r="B930" t="inlineStr">
         <is>
@@ -89002,24 +88986,24 @@
       </c>
       <c r="D930" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>46-50</t>
         </is>
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t>nainen</t>
+          <t>mies</t>
         </is>
       </c>
       <c r="F930" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G930" t="inlineStr">
         <is>
-          <t>Bachelors Degree (Information Technology)</t>
+          <t>High school</t>
         </is>
       </c>
       <c r="H930" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -89042,18 +89026,18 @@
         <v>1</v>
       </c>
       <c r="S930" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="T930" t="inlineStr">
         <is>
-          <t>Cloud Engineer</t>
+          <t>Software architect</t>
         </is>
       </c>
       <c r="U930" t="n">
-        <v>4150</v>
+        <v>5600</v>
       </c>
       <c r="V930" t="n">
-        <v>49800</v>
+        <v>70000</v>
       </c>
       <c r="W930" t="inlineStr"/>
       <c r="X930" t="inlineStr">
@@ -89071,19 +89055,19 @@
       </c>
       <c r="AC930" t="inlineStr">
         <is>
-          <t>Cloud Engineer</t>
+          <t>Software architect</t>
         </is>
       </c>
       <c r="AD930" t="n">
-        <v>4150</v>
+        <v>5833.333333333333</v>
       </c>
       <c r="AE930" t="n">
-        <v>4150</v>
+        <v>5833.333333333333</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
-        <v>45181.80816373842</v>
+        <v>45180.60901697916</v>
       </c>
       <c r="B931" t="inlineStr">
         <is>
@@ -89097,19 +89081,25 @@
       </c>
       <c r="D931" t="inlineStr">
         <is>
-          <t>41-45</t>
-        </is>
-      </c>
-      <c r="E931" t="inlineStr"/>
+          <t>31-35</t>
+        </is>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>nainen</t>
+        </is>
+      </c>
       <c r="F931" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G931" t="inlineStr">
         <is>
-          <t>2x MSc</t>
-        </is>
-      </c>
-      <c r="H931" t="inlineStr"/>
+          <t>Bachelors Degree (Information Technology)</t>
+        </is>
+      </c>
+      <c r="H931" t="n">
+        <v>48</v>
+      </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr"/>
@@ -89119,7 +89109,7 @@
       <c r="O931" t="inlineStr"/>
       <c r="P931" t="inlineStr">
         <is>
-          <t>PK-seutu</t>
+          <t>Tampere</t>
         </is>
       </c>
       <c r="Q931" t="inlineStr">
@@ -89131,27 +89121,23 @@
         <v>1</v>
       </c>
       <c r="S931" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T931" t="inlineStr">
         <is>
-          <t>Senior DevOps Consultant</t>
+          <t>Cloud Engineer</t>
         </is>
       </c>
       <c r="U931" t="n">
-        <v>6500</v>
+        <v>4150</v>
       </c>
       <c r="V931" t="n">
-        <v>81250</v>
-      </c>
-      <c r="W931" t="inlineStr">
-        <is>
-          <t>The usual lunch vouchers, etc.</t>
-        </is>
-      </c>
+        <v>49800</v>
+      </c>
+      <c r="W931" t="inlineStr"/>
       <c r="X931" t="inlineStr">
         <is>
-          <t>Ei</t>
+          <t>Kyllä</t>
         </is>
       </c>
       <c r="Y931" t="inlineStr"/>
@@ -89164,19 +89150,19 @@
       </c>
       <c r="AC931" t="inlineStr">
         <is>
-          <t>Senior DevOps Consultant</t>
+          <t>Cloud Engineer</t>
         </is>
       </c>
       <c r="AD931" t="n">
-        <v>6770.833333333333</v>
+        <v>4150</v>
       </c>
       <c r="AE931" t="n">
-        <v>6770.833333333333</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="2" t="n">
-        <v>45182.41481429398</v>
+        <v>45181.80816373842</v>
       </c>
       <c r="B932" t="inlineStr">
         <is>
@@ -89190,36 +89176,26 @@
       </c>
       <c r="D932" t="inlineStr">
         <is>
-          <t>26-30</t>
-        </is>
-      </c>
-      <c r="E932" t="inlineStr">
-        <is>
-          <t>mies</t>
-        </is>
-      </c>
+          <t>41-45</t>
+        </is>
+      </c>
+      <c r="E932" t="inlineStr"/>
       <c r="F932" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G932" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
-        </is>
-      </c>
-      <c r="H932" t="n">
-        <v>9</v>
-      </c>
+          <t>2x MSc</t>
+        </is>
+      </c>
+      <c r="H932" t="inlineStr"/>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr"/>
       <c r="L932" t="inlineStr"/>
       <c r="M932" t="inlineStr"/>
       <c r="N932" t="inlineStr"/>
-      <c r="O932" t="inlineStr">
-        <is>
-          <t>Liikennevirta</t>
-        </is>
-      </c>
+      <c r="O932" t="inlineStr"/>
       <c r="P932" t="inlineStr">
         <is>
           <t>PK-seutu</t>
@@ -89227,30 +89203,34 @@
       </c>
       <c r="Q932" t="inlineStr">
         <is>
-          <t>Product company with software as their core business</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="R932" t="n">
         <v>1</v>
       </c>
       <c r="S932" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="T932" t="inlineStr">
         <is>
-          <t>Senior Infrastructure Engineer</t>
+          <t>Senior DevOps Consultant</t>
         </is>
       </c>
       <c r="U932" t="n">
-        <v>5800</v>
+        <v>6500</v>
       </c>
       <c r="V932" t="n">
-        <v>82000</v>
-      </c>
-      <c r="W932" t="inlineStr"/>
+        <v>81250</v>
+      </c>
+      <c r="W932" t="inlineStr">
+        <is>
+          <t>The usual lunch vouchers, etc.</t>
+        </is>
+      </c>
       <c r="X932" t="inlineStr">
         <is>
-          <t>Kyllä</t>
+          <t>Ei</t>
         </is>
       </c>
       <c r="Y932" t="inlineStr"/>
@@ -89263,19 +89243,19 @@
       </c>
       <c r="AC932" t="inlineStr">
         <is>
-          <t>Senior Infrastructure Engineer</t>
+          <t>Senior DevOps Consultant</t>
         </is>
       </c>
       <c r="AD932" t="n">
-        <v>6833.333333333333</v>
+        <v>6770.833333333333</v>
       </c>
       <c r="AE932" t="n">
-        <v>6833.333333333333</v>
+        <v>6770.833333333333</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="2" t="n">
-        <v>45184.74750841435</v>
+        <v>45182.41481429398</v>
       </c>
       <c r="B933" t="inlineStr">
         <is>
@@ -89289,7 +89269,7 @@
       </c>
       <c r="D933" t="inlineStr">
         <is>
-          <t>41-45</t>
+          <t>26-30</t>
         </is>
       </c>
       <c r="E933" t="inlineStr">
@@ -89298,15 +89278,15 @@
         </is>
       </c>
       <c r="F933" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G933" t="inlineStr">
         <is>
-          <t>Master of Science</t>
+          <t>Undergraduate</t>
         </is>
       </c>
       <c r="H933" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -89314,7 +89294,11 @@
       <c r="L933" t="inlineStr"/>
       <c r="M933" t="inlineStr"/>
       <c r="N933" t="inlineStr"/>
-      <c r="O933" t="inlineStr"/>
+      <c r="O933" t="inlineStr">
+        <is>
+          <t>Liikennevirta</t>
+        </is>
+      </c>
       <c r="P933" t="inlineStr">
         <is>
           <t>PK-seutu</t>
@@ -89329,34 +89313,26 @@
         <v>1</v>
       </c>
       <c r="S933" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="T933" t="inlineStr">
         <is>
-          <t>CTO</t>
+          <t>Senior Infrastructure Engineer</t>
         </is>
       </c>
       <c r="U933" t="n">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="V933" t="n">
-        <v>72000</v>
-      </c>
-      <c r="W933" t="inlineStr">
-        <is>
-          <t>Salary, but also some share options which are useless for now</t>
-        </is>
-      </c>
+        <v>82000</v>
+      </c>
+      <c r="W933" t="inlineStr"/>
       <c r="X933" t="inlineStr">
         <is>
-          <t>Muu</t>
-        </is>
-      </c>
-      <c r="Y933" t="inlineStr">
-        <is>
-          <t>Maybe, depends on how much we value our startup share options</t>
-        </is>
-      </c>
+          <t>Kyllä</t>
+        </is>
+      </c>
+      <c r="Y933" t="inlineStr"/>
       <c r="Z933" t="inlineStr"/>
       <c r="AA933" t="inlineStr"/>
       <c r="AB933" t="inlineStr">
@@ -89366,19 +89342,19 @@
       </c>
       <c r="AC933" t="inlineStr">
         <is>
-          <t>CTO</t>
+          <t>Senior Infrastructure Engineer</t>
         </is>
       </c>
       <c r="AD933" t="n">
-        <v>6000</v>
+        <v>6833.333333333333</v>
       </c>
       <c r="AE933" t="n">
-        <v>6000</v>
+        <v>6833.333333333333</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="2" t="n">
-        <v>45186.70050061343</v>
+        <v>45184.74750841435</v>
       </c>
       <c r="B934" t="inlineStr">
         <is>
@@ -89392,7 +89368,7 @@
       </c>
       <c r="D934" t="inlineStr">
         <is>
-          <t>46-50</t>
+          <t>41-45</t>
         </is>
       </c>
       <c r="E934" t="inlineStr">
@@ -89401,11 +89377,15 @@
         </is>
       </c>
       <c r="F934" t="n">
-        <v>20</v>
-      </c>
-      <c r="G934" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>Master of Science</t>
+        </is>
+      </c>
       <c r="H934" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -89421,33 +89401,41 @@
       </c>
       <c r="Q934" t="inlineStr">
         <is>
-          <t>Consulting</t>
+          <t>Product company with software as their core business</t>
         </is>
       </c>
       <c r="R934" t="n">
         <v>1</v>
       </c>
       <c r="S934" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="T934" t="inlineStr">
         <is>
-          <t>Developer &amp; Team Lead</t>
+          <t>CTO</t>
         </is>
       </c>
       <c r="U934" t="n">
-        <v>4475</v>
+        <v>6000</v>
       </c>
       <c r="V934" t="n">
-        <v>56000</v>
-      </c>
-      <c r="W934" t="inlineStr"/>
+        <v>72000</v>
+      </c>
+      <c r="W934" t="inlineStr">
+        <is>
+          <t>Salary, but also some share options which are useless for now</t>
+        </is>
+      </c>
       <c r="X934" t="inlineStr">
         <is>
-          <t>Kyllä</t>
-        </is>
-      </c>
-      <c r="Y934" t="inlineStr"/>
+          <t>Muu</t>
+        </is>
+      </c>
+      <c r="Y934" t="inlineStr">
+        <is>
+          <t>Maybe, depends on how much we value our startup share options</t>
+        </is>
+      </c>
       <c r="Z934" t="inlineStr"/>
       <c r="AA934" t="inlineStr"/>
       <c r="AB934" t="inlineStr">
@@ -89457,19 +89445,19 @@
       </c>
       <c r="AC934" t="inlineStr">
         <is>
-          <t>Developer &amp; Team Lead</t>
+          <t>CTO</t>
         </is>
       </c>
       <c r="AD934" t="n">
-        <v>4666.666666666667</v>
+        <v>6000</v>
       </c>
       <c r="AE934" t="n">
-        <v>4666.666666666667</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
-        <v>45187.34580365741</v>
+        <v>45186.70050061343</v>
       </c>
       <c r="B935" t="inlineStr">
         <is>
@@ -89492,15 +89480,11 @@
         </is>
       </c>
       <c r="F935" t="n">
-        <v>32</v>
-      </c>
-      <c r="G935" t="inlineStr">
-        <is>
-          <t>Master's Degree</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G935" t="inlineStr"/>
       <c r="H935" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -89508,11 +89492,7 @@
       <c r="L935" t="inlineStr"/>
       <c r="M935" t="inlineStr"/>
       <c r="N935" t="inlineStr"/>
-      <c r="O935" t="inlineStr">
-        <is>
-          <t>Mapbox</t>
-        </is>
-      </c>
+      <c r="O935" t="inlineStr"/>
       <c r="P935" t="inlineStr">
         <is>
           <t>PK-seutu</t>
@@ -89520,31 +89500,27 @@
       </c>
       <c r="Q935" t="inlineStr">
         <is>
-          <t>Product company with software as their core business</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="R935" t="n">
         <v>1</v>
       </c>
       <c r="S935" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="T935" t="inlineStr">
         <is>
-          <t>Engineering Manager</t>
+          <t>Developer &amp; Team Lead</t>
         </is>
       </c>
       <c r="U935" t="n">
-        <v>13390</v>
+        <v>4475</v>
       </c>
       <c r="V935" t="n">
-        <v>168714</v>
-      </c>
-      <c r="W935" t="inlineStr">
-        <is>
-          <t>Just salary</t>
-        </is>
-      </c>
+        <v>56000</v>
+      </c>
+      <c r="W935" t="inlineStr"/>
       <c r="X935" t="inlineStr">
         <is>
           <t>Kyllä</t>
@@ -89560,19 +89536,19 @@
       </c>
       <c r="AC935" t="inlineStr">
         <is>
-          <t>Engineering Manager</t>
+          <t>Developer &amp; Team Lead</t>
         </is>
       </c>
       <c r="AD935" t="n">
-        <v>14059.5</v>
+        <v>4666.666666666667</v>
       </c>
       <c r="AE935" t="n">
-        <v>14059.5</v>
+        <v>4666.666666666667</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
-        <v>45187.5336828588</v>
+        <v>45187.34580365741</v>
       </c>
       <c r="B936" t="inlineStr">
         <is>
@@ -89586,7 +89562,7 @@
       </c>
       <c r="D936" t="inlineStr">
         <is>
-          <t>26-30</t>
+          <t>46-50</t>
         </is>
       </c>
       <c r="E936" t="inlineStr">
@@ -89595,15 +89571,15 @@
         </is>
       </c>
       <c r="F936" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G936" t="inlineStr">
         <is>
-          <t>Upper secondary school</t>
+          <t>Master's Degree</t>
         </is>
       </c>
       <c r="H936" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -89611,7 +89587,11 @@
       <c r="L936" t="inlineStr"/>
       <c r="M936" t="inlineStr"/>
       <c r="N936" t="inlineStr"/>
-      <c r="O936" t="inlineStr"/>
+      <c r="O936" t="inlineStr">
+        <is>
+          <t>Mapbox</t>
+        </is>
+      </c>
       <c r="P936" t="inlineStr">
         <is>
           <t>PK-seutu</t>
@@ -89619,30 +89599,34 @@
       </c>
       <c r="Q936" t="inlineStr">
         <is>
-          <t>A company where software is support role (for example banks or healthcare)</t>
+          <t>Product company with software as their core business</t>
         </is>
       </c>
       <c r="R936" t="n">
         <v>1</v>
       </c>
       <c r="S936" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="T936" t="inlineStr">
         <is>
-          <t>Full stack developer</t>
+          <t>Engineering Manager</t>
         </is>
       </c>
       <c r="U936" t="n">
-        <v>4050</v>
+        <v>13390</v>
       </c>
       <c r="V936" t="n">
-        <v>50625</v>
-      </c>
-      <c r="W936" t="inlineStr"/>
+        <v>168714</v>
+      </c>
+      <c r="W936" t="inlineStr">
+        <is>
+          <t>Just salary</t>
+        </is>
+      </c>
       <c r="X936" t="inlineStr">
         <is>
-          <t>Ei</t>
+          <t>Kyllä</t>
         </is>
       </c>
       <c r="Y936" t="inlineStr"/>
@@ -89655,19 +89639,19 @@
       </c>
       <c r="AC936" t="inlineStr">
         <is>
-          <t>*Full-stack Developer</t>
+          <t>Engineering Manager</t>
         </is>
       </c>
       <c r="AD936" t="n">
-        <v>4218.75</v>
+        <v>14059.5</v>
       </c>
       <c r="AE936" t="n">
-        <v>4218.75</v>
+        <v>14059.5</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="2" t="n">
-        <v>45189.32927572916</v>
+        <v>45187.5336828588</v>
       </c>
       <c r="B937" t="inlineStr">
         <is>
@@ -89681,7 +89665,7 @@
       </c>
       <c r="D937" t="inlineStr">
         <is>
-          <t>36-40</t>
+          <t>26-30</t>
         </is>
       </c>
       <c r="E937" t="inlineStr">
@@ -89690,15 +89674,15 @@
         </is>
       </c>
       <c r="F937" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G937" t="inlineStr">
         <is>
-          <t xml:space="preserve">University of applied sciences </t>
+          <t>Upper secondary school</t>
         </is>
       </c>
       <c r="H937" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -89714,34 +89698,30 @@
       </c>
       <c r="Q937" t="inlineStr">
         <is>
-          <t>Product company with software as their core business</t>
+          <t>A company where software is support role (for example banks or healthcare)</t>
         </is>
       </c>
       <c r="R937" t="n">
         <v>1</v>
       </c>
       <c r="S937" t="n">
-        <v>0.85</v>
+        <v>0.2</v>
       </c>
       <c r="T937" t="inlineStr">
         <is>
-          <t>Nodejs fullstack developer</t>
+          <t>Full stack developer</t>
         </is>
       </c>
       <c r="U937" t="n">
-        <v>9900</v>
+        <v>4050</v>
       </c>
       <c r="V937" t="n">
-        <v>120000</v>
-      </c>
-      <c r="W937" t="inlineStr">
-        <is>
-          <t>only compensation</t>
-        </is>
-      </c>
+        <v>50625</v>
+      </c>
+      <c r="W937" t="inlineStr"/>
       <c r="X937" t="inlineStr">
         <is>
-          <t>Kyllä</t>
+          <t>Ei</t>
         </is>
       </c>
       <c r="Y937" t="inlineStr"/>
@@ -89754,19 +89734,19 @@
       </c>
       <c r="AC937" t="inlineStr">
         <is>
-          <t>Nodejs fullstack developer</t>
+          <t>*Full-stack Developer</t>
         </is>
       </c>
       <c r="AD937" t="n">
-        <v>10000</v>
+        <v>4218.75</v>
       </c>
       <c r="AE937" t="n">
-        <v>10000</v>
+        <v>4218.75</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="2" t="n">
-        <v>45189.4759243287</v>
+        <v>45189.32927572916</v>
       </c>
       <c r="B938" t="inlineStr">
         <is>
@@ -89780,19 +89760,25 @@
       </c>
       <c r="D938" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>36-40</t>
         </is>
       </c>
       <c r="E938" t="inlineStr">
         <is>
-          <t>nainen</t>
+          <t>mies</t>
         </is>
       </c>
       <c r="F938" t="n">
-        <v>6</v>
-      </c>
-      <c r="G938" t="inlineStr"/>
-      <c r="H938" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t xml:space="preserve">University of applied sciences </t>
+        </is>
+      </c>
+      <c r="H938" t="n">
+        <v>7</v>
+      </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr"/>
@@ -89807,30 +89793,34 @@
       </c>
       <c r="Q938" t="inlineStr">
         <is>
-          <t>Consulting</t>
+          <t>Product company with software as their core business</t>
         </is>
       </c>
       <c r="R938" t="n">
         <v>1</v>
       </c>
       <c r="S938" t="n">
-        <v>0.3</v>
+        <v>0.85</v>
       </c>
       <c r="T938" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Nodejs fullstack developer</t>
         </is>
       </c>
       <c r="U938" t="n">
-        <v>4500</v>
+        <v>9900</v>
       </c>
       <c r="V938" t="n">
-        <v>54000</v>
-      </c>
-      <c r="W938" t="inlineStr"/>
+        <v>120000</v>
+      </c>
+      <c r="W938" t="inlineStr">
+        <is>
+          <t>only compensation</t>
+        </is>
+      </c>
       <c r="X938" t="inlineStr">
         <is>
-          <t>Ei</t>
+          <t>Kyllä</t>
         </is>
       </c>
       <c r="Y938" t="inlineStr"/>
@@ -89843,19 +89833,19 @@
       </c>
       <c r="AC938" t="inlineStr">
         <is>
-          <t>*Full-stack Developer</t>
+          <t>Nodejs fullstack developer</t>
         </is>
       </c>
       <c r="AD938" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="AE938" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="2" t="n">
-        <v>45189.90009978009</v>
+        <v>45189.4759243287</v>
       </c>
       <c r="B939" t="inlineStr">
         <is>
@@ -89874,31 +89864,21 @@
       </c>
       <c r="E939" t="inlineStr">
         <is>
-          <t>mies</t>
+          <t>nainen</t>
         </is>
       </c>
       <c r="F939" t="n">
-        <v>10</v>
-      </c>
-      <c r="G939" t="inlineStr">
-        <is>
-          <t>bachelor's</t>
-        </is>
-      </c>
-      <c r="H939" t="n">
         <v>6</v>
       </c>
+      <c r="G939" t="inlineStr"/>
+      <c r="H939" t="inlineStr"/>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr"/>
       <c r="L939" t="inlineStr"/>
       <c r="M939" t="inlineStr"/>
       <c r="N939" t="inlineStr"/>
-      <c r="O939" t="inlineStr">
-        <is>
-          <t>Mapbox</t>
-        </is>
-      </c>
+      <c r="O939" t="inlineStr"/>
       <c r="P939" t="inlineStr">
         <is>
           <t>PK-seutu</t>
@@ -89906,30 +89886,30 @@
       </c>
       <c r="Q939" t="inlineStr">
         <is>
-          <t>Product company with software as their core business</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="R939" t="n">
         <v>1</v>
       </c>
       <c r="S939" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="T939" t="inlineStr">
         <is>
-          <t>Android developer</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="U939" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="V939" t="n">
-        <v>125000</v>
+        <v>54000</v>
       </c>
       <c r="W939" t="inlineStr"/>
       <c r="X939" t="inlineStr">
         <is>
-          <t>Kyllä</t>
+          <t>Ei</t>
         </is>
       </c>
       <c r="Y939" t="inlineStr"/>
@@ -89942,19 +89922,19 @@
       </c>
       <c r="AC939" t="inlineStr">
         <is>
-          <t>Android developer</t>
+          <t>*Full-stack Developer</t>
         </is>
       </c>
       <c r="AD939" t="n">
-        <v>10416.66666666667</v>
+        <v>4500</v>
       </c>
       <c r="AE939" t="n">
-        <v>10416.66666666667</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="2" t="n">
-        <v>45190.41299619213</v>
+        <v>45189.90009978009</v>
       </c>
       <c r="B940" t="inlineStr">
         <is>
@@ -89977,15 +89957,15 @@
         </is>
       </c>
       <c r="F940" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G940" t="inlineStr">
         <is>
-          <t>Masters in computer science</t>
+          <t>bachelor's</t>
         </is>
       </c>
       <c r="H940" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -89993,7 +89973,11 @@
       <c r="L940" t="inlineStr"/>
       <c r="M940" t="inlineStr"/>
       <c r="N940" t="inlineStr"/>
-      <c r="O940" t="inlineStr"/>
+      <c r="O940" t="inlineStr">
+        <is>
+          <t>Mapbox</t>
+        </is>
+      </c>
       <c r="P940" t="inlineStr">
         <is>
           <t>PK-seutu</t>
@@ -90001,25 +89985,25 @@
       </c>
       <c r="Q940" t="inlineStr">
         <is>
-          <t>Consulting</t>
+          <t>Product company with software as their core business</t>
         </is>
       </c>
       <c r="R940" t="n">
         <v>1</v>
       </c>
       <c r="S940" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="T940" t="inlineStr">
         <is>
-          <t>DevOps Consultant</t>
+          <t>Android developer</t>
         </is>
       </c>
       <c r="U940" t="n">
-        <v>5700</v>
+        <v>10000</v>
       </c>
       <c r="V940" t="n">
-        <v>72000</v>
+        <v>125000</v>
       </c>
       <c r="W940" t="inlineStr"/>
       <c r="X940" t="inlineStr">
@@ -90037,19 +90021,19 @@
       </c>
       <c r="AC940" t="inlineStr">
         <is>
-          <t>*Devops Consultant</t>
+          <t>Android developer</t>
         </is>
       </c>
       <c r="AD940" t="n">
-        <v>6000</v>
+        <v>10416.66666666667</v>
       </c>
       <c r="AE940" t="n">
-        <v>6000</v>
+        <v>10416.66666666667</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
-        <v>45190.50600185185</v>
+        <v>45190.41299619213</v>
       </c>
       <c r="B941" t="inlineStr">
         <is>
@@ -90063,24 +90047,24 @@
       </c>
       <c r="D941" t="inlineStr">
         <is>
-          <t>26-30</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E941" t="inlineStr">
         <is>
-          <t>nainen</t>
+          <t>mies</t>
         </is>
       </c>
       <c r="F941" t="n">
+        <v>9</v>
+      </c>
+      <c r="G941" t="inlineStr">
+        <is>
+          <t>Masters in computer science</t>
+        </is>
+      </c>
+      <c r="H941" t="n">
         <v>5</v>
-      </c>
-      <c r="G941" t="inlineStr">
-        <is>
-          <t>Master's degree and lower university degree</t>
-        </is>
-      </c>
-      <c r="H941" t="n">
-        <v>4</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -90088,14 +90072,10 @@
       <c r="L941" t="inlineStr"/>
       <c r="M941" t="inlineStr"/>
       <c r="N941" t="inlineStr"/>
-      <c r="O941" t="inlineStr">
-        <is>
-          <t>Solita</t>
-        </is>
-      </c>
+      <c r="O941" t="inlineStr"/>
       <c r="P941" t="inlineStr">
         <is>
-          <t>Tampere</t>
+          <t>PK-seutu</t>
         </is>
       </c>
       <c r="Q941" t="inlineStr">
@@ -90107,34 +90087,26 @@
         <v>1</v>
       </c>
       <c r="S941" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="T941" t="inlineStr">
         <is>
-          <t>Integration specialist</t>
+          <t>DevOps Consultant</t>
         </is>
       </c>
       <c r="U941" t="n">
-        <v>4479</v>
+        <v>5700</v>
       </c>
       <c r="V941" t="n">
-        <v>55459</v>
-      </c>
-      <c r="W941" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salary and mobilephone compensation </t>
-        </is>
-      </c>
+        <v>72000</v>
+      </c>
+      <c r="W941" t="inlineStr"/>
       <c r="X941" t="inlineStr">
         <is>
-          <t>Muu</t>
-        </is>
-      </c>
-      <c r="Y941" t="inlineStr">
-        <is>
-          <t>I dunno</t>
-        </is>
-      </c>
+          <t>Kyllä</t>
+        </is>
+      </c>
+      <c r="Y941" t="inlineStr"/>
       <c r="Z941" t="inlineStr"/>
       <c r="AA941" t="inlineStr"/>
       <c r="AB941" t="inlineStr">
@@ -90144,19 +90116,19 @@
       </c>
       <c r="AC941" t="inlineStr">
         <is>
-          <t>Integration specialist</t>
+          <t>*Devops Consultant</t>
         </is>
       </c>
       <c r="AD941" t="n">
-        <v>4621.583333333333</v>
+        <v>6000</v>
       </c>
       <c r="AE941" t="n">
-        <v>4621.583333333333</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="2" t="n">
-        <v>45190.53998760417</v>
+        <v>45190.50600185185</v>
       </c>
       <c r="B942" t="inlineStr">
         <is>
@@ -90170,7 +90142,7 @@
       </c>
       <c r="D942" t="inlineStr">
         <is>
-          <t>36-40</t>
+          <t>26-30</t>
         </is>
       </c>
       <c r="E942" t="inlineStr">
@@ -90179,15 +90151,15 @@
         </is>
       </c>
       <c r="F942" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G942" t="inlineStr">
         <is>
-          <t>Collage drop out</t>
+          <t>Master's degree and lower university degree</t>
         </is>
       </c>
       <c r="H942" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -90195,10 +90167,14 @@
       <c r="L942" t="inlineStr"/>
       <c r="M942" t="inlineStr"/>
       <c r="N942" t="inlineStr"/>
-      <c r="O942" t="inlineStr"/>
+      <c r="O942" t="inlineStr">
+        <is>
+          <t>Solita</t>
+        </is>
+      </c>
       <c r="P942" t="inlineStr">
         <is>
-          <t>Oulu</t>
+          <t>Tampere</t>
         </is>
       </c>
       <c r="Q942" t="inlineStr">
@@ -90210,48 +90186,56 @@
         <v>1</v>
       </c>
       <c r="S942" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="T942" t="inlineStr"/>
+        <v>0.4</v>
+      </c>
+      <c r="T942" t="inlineStr">
+        <is>
+          <t>Integration specialist</t>
+        </is>
+      </c>
       <c r="U942" t="n">
-        <v>5871</v>
+        <v>4479</v>
       </c>
       <c r="V942" t="n">
-        <v>70500</v>
+        <v>55459</v>
       </c>
       <c r="W942" t="inlineStr">
         <is>
-          <t>Monthly salery</t>
+          <t xml:space="preserve">Salary and mobilephone compensation </t>
         </is>
       </c>
       <c r="X942" t="inlineStr">
         <is>
-          <t>Kyllä</t>
-        </is>
-      </c>
-      <c r="Y942" t="inlineStr"/>
-      <c r="Z942" t="inlineStr">
-        <is>
-          <t>Do you have other responsibilities besides software development? Yes, managerial responsibilities</t>
-        </is>
-      </c>
+          <t>Muu</t>
+        </is>
+      </c>
+      <c r="Y942" t="inlineStr">
+        <is>
+          <t>I dunno</t>
+        </is>
+      </c>
+      <c r="Z942" t="inlineStr"/>
       <c r="AA942" t="inlineStr"/>
       <c r="AB942" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="AC942" t="inlineStr"/>
+      <c r="AC942" t="inlineStr">
+        <is>
+          <t>Integration specialist</t>
+        </is>
+      </c>
       <c r="AD942" t="n">
-        <v>5875</v>
+        <v>4621.583333333333</v>
       </c>
       <c r="AE942" t="n">
-        <v>5875</v>
+        <v>4621.583333333333</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="2" t="n">
-        <v>45191.31801685185</v>
+        <v>45190.53998760417</v>
       </c>
       <c r="B943" t="inlineStr">
         <is>
@@ -90274,15 +90258,15 @@
         </is>
       </c>
       <c r="F943" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G943" t="inlineStr">
         <is>
-          <t>Bachelor of engineering</t>
+          <t>Collage drop out</t>
         </is>
       </c>
       <c r="H943" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -90293,7 +90277,7 @@
       <c r="O943" t="inlineStr"/>
       <c r="P943" t="inlineStr">
         <is>
-          <t>PK-seutu</t>
+          <t>Oulu</t>
         </is>
       </c>
       <c r="Q943" t="inlineStr">
@@ -90305,52 +90289,48 @@
         <v>1</v>
       </c>
       <c r="S943" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T943" t="inlineStr">
-        <is>
-          <t>Senior web developer, accessibility specialist</t>
-        </is>
-      </c>
+        <v>0.45</v>
+      </c>
+      <c r="T943" t="inlineStr"/>
       <c r="U943" t="n">
-        <v>4400</v>
+        <v>5871</v>
       </c>
       <c r="V943" t="n">
-        <v>53000</v>
-      </c>
-      <c r="W943" t="inlineStr"/>
+        <v>70500</v>
+      </c>
+      <c r="W943" t="inlineStr">
+        <is>
+          <t>Monthly salery</t>
+        </is>
+      </c>
       <c r="X943" t="inlineStr">
         <is>
-          <t>Muu</t>
-        </is>
-      </c>
-      <c r="Y943" t="inlineStr">
-        <is>
-          <t>Don't know</t>
-        </is>
-      </c>
-      <c r="Z943" t="inlineStr"/>
+          <t>Kyllä</t>
+        </is>
+      </c>
+      <c r="Y943" t="inlineStr"/>
+      <c r="Z943" t="inlineStr">
+        <is>
+          <t>Do you have other responsibilities besides software development? Yes, managerial responsibilities</t>
+        </is>
+      </c>
       <c r="AA943" t="inlineStr"/>
       <c r="AB943" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="AC943" t="inlineStr">
-        <is>
-          <t>Senior web developer, accessibility specialist</t>
-        </is>
-      </c>
+      <c r="AC943" t="inlineStr"/>
       <c r="AD943" t="n">
-        <v>4416.666666666667</v>
+        <v>5875</v>
       </c>
       <c r="AE943" t="n">
-        <v>4416.666666666667</v>
+        <v>5875</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="2" t="n">
-        <v>45191.34978998842</v>
+        <v>45191.31801685185</v>
       </c>
       <c r="B944" t="inlineStr">
         <is>
@@ -90373,15 +90353,15 @@
         </is>
       </c>
       <c r="F944" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G944" t="inlineStr">
         <is>
-          <t>PhD</t>
+          <t>Bachelor of engineering</t>
         </is>
       </c>
       <c r="H944" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -90401,29 +90381,33 @@
         </is>
       </c>
       <c r="R944" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S944" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="T944" t="inlineStr">
         <is>
-          <t>Senior web developer, Techical competence manager</t>
+          <t>Senior web developer, accessibility specialist</t>
         </is>
       </c>
       <c r="U944" t="n">
-        <v>5200</v>
+        <v>4400</v>
       </c>
       <c r="V944" t="n">
-        <v>67600</v>
+        <v>53000</v>
       </c>
       <c r="W944" t="inlineStr"/>
       <c r="X944" t="inlineStr">
         <is>
-          <t>Ei</t>
-        </is>
-      </c>
-      <c r="Y944" t="inlineStr"/>
+          <t>Muu</t>
+        </is>
+      </c>
+      <c r="Y944" t="inlineStr">
+        <is>
+          <t>Don't know</t>
+        </is>
+      </c>
       <c r="Z944" t="inlineStr"/>
       <c r="AA944" t="inlineStr"/>
       <c r="AB944" t="inlineStr">
@@ -90433,19 +90417,19 @@
       </c>
       <c r="AC944" t="inlineStr">
         <is>
-          <t>Senior web developer, Techical competence manager</t>
+          <t>Senior web developer, accessibility specialist</t>
         </is>
       </c>
       <c r="AD944" t="n">
-        <v>5633.333333333333</v>
+        <v>4416.666666666667</v>
       </c>
       <c r="AE944" t="n">
-        <v>7041.666666666666</v>
+        <v>4416.666666666667</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="2" t="n">
-        <v>45191.35234159722</v>
+        <v>45191.34978998842</v>
       </c>
       <c r="B945" t="inlineStr">
         <is>
@@ -90459,14 +90443,24 @@
       </c>
       <c r="D945" t="inlineStr">
         <is>
-          <t>46-50</t>
-        </is>
-      </c>
-      <c r="E945" t="inlineStr"/>
-      <c r="F945" t="inlineStr"/>
-      <c r="G945" t="inlineStr"/>
+          <t>36-40</t>
+        </is>
+      </c>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>nainen</t>
+        </is>
+      </c>
+      <c r="F945" t="n">
+        <v>9</v>
+      </c>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>PhD</t>
+        </is>
+      </c>
       <c r="H945" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -90474,11 +90468,7 @@
       <c r="L945" t="inlineStr"/>
       <c r="M945" t="inlineStr"/>
       <c r="N945" t="inlineStr"/>
-      <c r="O945" t="inlineStr">
-        <is>
-          <t>Exove</t>
-        </is>
-      </c>
+      <c r="O945" t="inlineStr"/>
       <c r="P945" t="inlineStr">
         <is>
           <t>PK-seutu</t>
@@ -90490,26 +90480,26 @@
         </is>
       </c>
       <c r="R945" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S945" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="T945" t="inlineStr">
         <is>
-          <t>Senior developer</t>
+          <t>Senior web developer, Techical competence manager</t>
         </is>
       </c>
       <c r="U945" t="n">
-        <v>4920</v>
+        <v>5200</v>
       </c>
       <c r="V945" t="n">
-        <v>62000</v>
+        <v>67600</v>
       </c>
       <c r="W945" t="inlineStr"/>
       <c r="X945" t="inlineStr">
         <is>
-          <t>Muu</t>
+          <t>Ei</t>
         </is>
       </c>
       <c r="Y945" t="inlineStr"/>
@@ -90522,19 +90512,19 @@
       </c>
       <c r="AC945" t="inlineStr">
         <is>
-          <t>*Senior Developer</t>
+          <t>Senior web developer, Techical competence manager</t>
         </is>
       </c>
       <c r="AD945" t="n">
-        <v>5166.666666666667</v>
+        <v>5633.333333333333</v>
       </c>
       <c r="AE945" t="n">
-        <v>5166.666666666667</v>
+        <v>7041.666666666666</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="2" t="n">
-        <v>45191.35525497685</v>
+        <v>45191.35234159722</v>
       </c>
       <c r="B946" t="inlineStr">
         <is>
@@ -90548,24 +90538,14 @@
       </c>
       <c r="D946" t="inlineStr">
         <is>
-          <t>26-30</t>
-        </is>
-      </c>
-      <c r="E946" t="inlineStr">
-        <is>
-          <t>nainen</t>
-        </is>
-      </c>
-      <c r="F946" t="n">
-        <v>7</v>
-      </c>
-      <c r="G946" t="inlineStr">
-        <is>
-          <t>Master of science in IT</t>
-        </is>
-      </c>
+          <t>46-50</t>
+        </is>
+      </c>
+      <c r="E946" t="inlineStr"/>
+      <c r="F946" t="inlineStr"/>
+      <c r="G946" t="inlineStr"/>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -90573,10 +90553,14 @@
       <c r="L946" t="inlineStr"/>
       <c r="M946" t="inlineStr"/>
       <c r="N946" t="inlineStr"/>
-      <c r="O946" t="inlineStr"/>
+      <c r="O946" t="inlineStr">
+        <is>
+          <t>Exove</t>
+        </is>
+      </c>
       <c r="P946" t="inlineStr">
         <is>
-          <t>Oulu</t>
+          <t>PK-seutu</t>
         </is>
       </c>
       <c r="Q946" t="inlineStr">
@@ -90588,23 +90572,23 @@
         <v>1</v>
       </c>
       <c r="S946" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="T946" t="inlineStr">
         <is>
-          <t>Full stack software developer</t>
+          <t>Senior developer</t>
         </is>
       </c>
       <c r="U946" t="n">
-        <v>4900</v>
+        <v>4920</v>
       </c>
       <c r="V946" t="n">
-        <v>62500</v>
+        <v>62000</v>
       </c>
       <c r="W946" t="inlineStr"/>
       <c r="X946" t="inlineStr">
         <is>
-          <t>Kyllä</t>
+          <t>Muu</t>
         </is>
       </c>
       <c r="Y946" t="inlineStr"/>
@@ -90617,19 +90601,19 @@
       </c>
       <c r="AC946" t="inlineStr">
         <is>
-          <t>Full stack software developer</t>
+          <t>*Senior Developer</t>
         </is>
       </c>
       <c r="AD946" t="n">
-        <v>5208.333333333333</v>
+        <v>5166.666666666667</v>
       </c>
       <c r="AE946" t="n">
-        <v>5208.333333333333</v>
+        <v>5166.666666666667</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="2" t="n">
-        <v>45191.35627658565</v>
+        <v>45191.35525497685</v>
       </c>
       <c r="B947" t="inlineStr">
         <is>
@@ -90648,19 +90632,19 @@
       </c>
       <c r="E947" t="inlineStr">
         <is>
-          <t>mies</t>
+          <t>nainen</t>
         </is>
       </c>
       <c r="F947" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G947" t="inlineStr">
         <is>
-          <t>Vocational college + some university</t>
+          <t>Master of science in IT</t>
         </is>
       </c>
       <c r="H947" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -90683,18 +90667,18 @@
         <v>1</v>
       </c>
       <c r="S947" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="T947" t="inlineStr">
         <is>
-          <t>Senior Developer / Manager</t>
+          <t>Full stack software developer</t>
         </is>
       </c>
       <c r="U947" t="n">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="V947" t="n">
-        <v>68000</v>
+        <v>62500</v>
       </c>
       <c r="W947" t="inlineStr"/>
       <c r="X947" t="inlineStr">
@@ -90712,19 +90696,19 @@
       </c>
       <c r="AC947" t="inlineStr">
         <is>
-          <t>Senior Developer / Manager</t>
+          <t>Full stack software developer</t>
         </is>
       </c>
       <c r="AD947" t="n">
-        <v>5666.666666666667</v>
+        <v>5208.333333333333</v>
       </c>
       <c r="AE947" t="n">
-        <v>5666.666666666667</v>
+        <v>5208.333333333333</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="2" t="n">
-        <v>45191.45737767361</v>
+        <v>45191.35627658565</v>
       </c>
       <c r="B948" t="inlineStr">
         <is>
@@ -90747,15 +90731,15 @@
         </is>
       </c>
       <c r="F948" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G948" t="inlineStr">
         <is>
-          <t>Bachelor's degree in media engineeering</t>
+          <t>Vocational college + some university</t>
         </is>
       </c>
       <c r="H948" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -90766,7 +90750,7 @@
       <c r="O948" t="inlineStr"/>
       <c r="P948" t="inlineStr">
         <is>
-          <t>PK-seutu</t>
+          <t>Oulu</t>
         </is>
       </c>
       <c r="Q948" t="inlineStr">
@@ -90778,18 +90762,18 @@
         <v>1</v>
       </c>
       <c r="S948" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="T948" t="inlineStr">
         <is>
-          <t>Support Developer</t>
+          <t>Senior Developer / Manager</t>
         </is>
       </c>
       <c r="U948" t="n">
-        <v>3100</v>
+        <v>5000</v>
       </c>
       <c r="V948" t="n">
-        <v>40000</v>
+        <v>68000</v>
       </c>
       <c r="W948" t="inlineStr"/>
       <c r="X948" t="inlineStr">
@@ -90807,19 +90791,19 @@
       </c>
       <c r="AC948" t="inlineStr">
         <is>
-          <t>Support Developer</t>
+          <t>Senior Developer / Manager</t>
         </is>
       </c>
       <c r="AD948" t="n">
-        <v>3333.333333333333</v>
+        <v>5666.666666666667</v>
       </c>
       <c r="AE948" t="n">
-        <v>3333.333333333333</v>
+        <v>5666.666666666667</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="2" t="n">
-        <v>45191.47872736111</v>
+        <v>45191.45737767361</v>
       </c>
       <c r="B949" t="inlineStr">
         <is>
@@ -90833,23 +90817,25 @@
       </c>
       <c r="D949" t="inlineStr">
         <is>
-          <t>41-45</t>
+          <t>26-30</t>
         </is>
       </c>
       <c r="E949" t="inlineStr">
         <is>
-          <t>nainen</t>
+          <t>mies</t>
         </is>
       </c>
       <c r="F949" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G949" t="inlineStr">
         <is>
-          <t>Trade School certificate in relevant industry, Bachelor degree in other discipline</t>
-        </is>
-      </c>
-      <c r="H949" t="inlineStr"/>
+          <t>Bachelor's degree in media engineeering</t>
+        </is>
+      </c>
+      <c r="H949" t="n">
+        <v>19</v>
+      </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr"/>
@@ -90864,7 +90850,7 @@
       </c>
       <c r="Q949" t="inlineStr">
         <is>
-          <t>Product company with software as their core business</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="R949" t="n">
@@ -90875,17 +90861,19 @@
       </c>
       <c r="T949" t="inlineStr">
         <is>
-          <t>Fullstack Web Developer</t>
+          <t>Support Developer</t>
         </is>
       </c>
       <c r="U949" t="n">
-        <v>3000</v>
-      </c>
-      <c r="V949" t="inlineStr"/>
+        <v>3100</v>
+      </c>
+      <c r="V949" t="n">
+        <v>40000</v>
+      </c>
       <c r="W949" t="inlineStr"/>
       <c r="X949" t="inlineStr">
         <is>
-          <t>Ei</t>
+          <t>Kyllä</t>
         </is>
       </c>
       <c r="Y949" t="inlineStr"/>
@@ -90898,15 +90886,19 @@
       </c>
       <c r="AC949" t="inlineStr">
         <is>
-          <t>*Full-stack Developer</t>
-        </is>
-      </c>
-      <c r="AD949" t="inlineStr"/>
-      <c r="AE949" t="inlineStr"/>
+          <t>Support Developer</t>
+        </is>
+      </c>
+      <c r="AD949" t="n">
+        <v>3333.333333333333</v>
+      </c>
+      <c r="AE949" t="n">
+        <v>3333.333333333333</v>
+      </c>
     </row>
     <row r="950">
       <c r="A950" s="2" t="n">
-        <v>45191.55796550926</v>
+        <v>45191.47872736111</v>
       </c>
       <c r="B950" t="inlineStr">
         <is>
@@ -90920,25 +90912,23 @@
       </c>
       <c r="D950" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>41-45</t>
         </is>
       </c>
       <c r="E950" t="inlineStr">
         <is>
-          <t>mies</t>
+          <t>nainen</t>
         </is>
       </c>
       <c r="F950" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G950" t="inlineStr">
         <is>
-          <t>Bachelor in IT</t>
-        </is>
-      </c>
-      <c r="H950" t="n">
-        <v>9</v>
-      </c>
+          <t>Trade School certificate in relevant industry, Bachelor degree in other discipline</t>
+        </is>
+      </c>
+      <c r="H950" t="inlineStr"/>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr"/>
@@ -90948,46 +90938,36 @@
       <c r="O950" t="inlineStr"/>
       <c r="P950" t="inlineStr">
         <is>
-          <t>Oulu</t>
+          <t>PK-seutu</t>
         </is>
       </c>
       <c r="Q950" t="inlineStr">
         <is>
-          <t>Consulting</t>
+          <t>Product company with software as their core business</t>
         </is>
       </c>
       <c r="R950" t="n">
         <v>1</v>
       </c>
       <c r="S950" t="n">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="T950" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>Fullstack Web Developer</t>
         </is>
       </c>
       <c r="U950" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V950" t="n">
-        <v>58000</v>
-      </c>
-      <c r="W950" t="inlineStr">
-        <is>
-          <t>Just the salary</t>
-        </is>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="V950" t="inlineStr"/>
+      <c r="W950" t="inlineStr"/>
       <c r="X950" t="inlineStr">
         <is>
-          <t>Muu</t>
-        </is>
-      </c>
-      <c r="Y950" t="inlineStr">
-        <is>
-          <t>I belive it's in the middle. I could probably earn a bit more, or a bit less elsewhere with the same salary model. Naturally it's not competitive wrt. provisiopalkka, but it's not really fair to compare the two.</t>
-        </is>
-      </c>
+          <t>Ei</t>
+        </is>
+      </c>
+      <c r="Y950" t="inlineStr"/>
       <c r="Z950" t="inlineStr"/>
       <c r="AA950" t="inlineStr"/>
       <c r="AB950" t="inlineStr">
@@ -90997,19 +90977,15 @@
       </c>
       <c r="AC950" t="inlineStr">
         <is>
-          <t>Software Developer</t>
-        </is>
-      </c>
-      <c r="AD950" t="n">
-        <v>4833.333333333333</v>
-      </c>
-      <c r="AE950" t="n">
-        <v>4833.333333333333</v>
-      </c>
+          <t>*Full-stack Developer</t>
+        </is>
+      </c>
+      <c r="AD950" t="inlineStr"/>
+      <c r="AE950" t="inlineStr"/>
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
-        <v>45191.59667115741</v>
+        <v>45191.55796550926</v>
       </c>
       <c r="B951" t="inlineStr">
         <is>
@@ -91023,7 +90999,7 @@
       </c>
       <c r="D951" t="inlineStr">
         <is>
-          <t>26-30</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E951" t="inlineStr">
@@ -91032,15 +91008,15 @@
         </is>
       </c>
       <c r="F951" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G951" t="inlineStr">
         <is>
-          <t>Bachelor of engineering</t>
+          <t>Bachelor in IT</t>
         </is>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -91048,19 +91024,15 @@
       <c r="L951" t="inlineStr"/>
       <c r="M951" t="inlineStr"/>
       <c r="N951" t="inlineStr"/>
-      <c r="O951" t="inlineStr">
-        <is>
-          <t>Exove</t>
-        </is>
-      </c>
+      <c r="O951" t="inlineStr"/>
       <c r="P951" t="inlineStr">
         <is>
-          <t>PK-seutu</t>
+          <t>Oulu</t>
         </is>
       </c>
       <c r="Q951" t="inlineStr">
         <is>
-          <t>Product company with software as their core business</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="R951" t="n">
@@ -91071,26 +91043,30 @@
       </c>
       <c r="T951" t="inlineStr">
         <is>
-          <t>Support developer</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="U951" t="n">
-        <v>3700</v>
+        <v>4600</v>
       </c>
       <c r="V951" t="n">
-        <v>3700</v>
+        <v>58000</v>
       </c>
       <c r="W951" t="inlineStr">
         <is>
-          <t>100% salary</t>
+          <t>Just the salary</t>
         </is>
       </c>
       <c r="X951" t="inlineStr">
         <is>
-          <t>Kyllä</t>
-        </is>
-      </c>
-      <c r="Y951" t="inlineStr"/>
+          <t>Muu</t>
+        </is>
+      </c>
+      <c r="Y951" t="inlineStr">
+        <is>
+          <t>I belive it's in the middle. I could probably earn a bit more, or a bit less elsewhere with the same salary model. Naturally it's not competitive wrt. provisiopalkka, but it's not really fair to compare the two.</t>
+        </is>
+      </c>
       <c r="Z951" t="inlineStr"/>
       <c r="AA951" t="inlineStr"/>
       <c r="AB951" t="inlineStr">
@@ -91100,23 +91076,23 @@
       </c>
       <c r="AC951" t="inlineStr">
         <is>
-          <t>Support developer</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="AD951" t="n">
-        <v>308.3333333333333</v>
+        <v>4833.333333333333</v>
       </c>
       <c r="AE951" t="n">
-        <v>308.3333333333333</v>
+        <v>4833.333333333333</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
-        <v>45191.59762563658</v>
+        <v>45191.59667115741</v>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>Laskuttaja</t>
+          <t>Palkansaaja</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
@@ -91126,55 +91102,71 @@
       </c>
       <c r="D952" t="inlineStr">
         <is>
-          <t>41-45</t>
-        </is>
-      </c>
-      <c r="E952" t="inlineStr"/>
+          <t>26-30</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>mies</t>
+        </is>
+      </c>
       <c r="F952" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G952" t="inlineStr">
         <is>
-          <t>Industrial Engineering</t>
-        </is>
-      </c>
-      <c r="H952" t="inlineStr"/>
-      <c r="I952" t="n">
-        <v>5</v>
-      </c>
-      <c r="J952" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Front end, back end, fullstack, web, mobile, Integrations, maintenance </t>
-        </is>
-      </c>
-      <c r="K952" t="n">
+          <t>Bachelor of engineering</t>
+        </is>
+      </c>
+      <c r="H952" t="n">
         <v>0</v>
       </c>
-      <c r="L952" t="n">
-        <v>0</v>
-      </c>
-      <c r="M952" t="inlineStr">
-        <is>
-          <t>Myself, Agencies</t>
-        </is>
-      </c>
-      <c r="N952" t="inlineStr">
-        <is>
-          <t>Suomesta</t>
-        </is>
-      </c>
-      <c r="O952" t="inlineStr"/>
-      <c r="P952" t="inlineStr"/>
-      <c r="Q952" t="inlineStr"/>
-      <c r="R952" t="inlineStr"/>
-      <c r="S952" t="inlineStr"/>
-      <c r="T952" t="inlineStr"/>
-      <c r="U952" t="inlineStr"/>
-      <c r="V952" t="inlineStr"/>
-      <c r="W952" t="inlineStr"/>
+      <c r="I952" t="inlineStr"/>
+      <c r="J952" t="inlineStr"/>
+      <c r="K952" t="inlineStr"/>
+      <c r="L952" t="inlineStr"/>
+      <c r="M952" t="inlineStr"/>
+      <c r="N952" t="inlineStr"/>
+      <c r="O952" t="inlineStr">
+        <is>
+          <t>Exove</t>
+        </is>
+      </c>
+      <c r="P952" t="inlineStr">
+        <is>
+          <t>PK-seutu</t>
+        </is>
+      </c>
+      <c r="Q952" t="inlineStr">
+        <is>
+          <t>Product company with software as their core business</t>
+        </is>
+      </c>
+      <c r="R952" t="n">
+        <v>1</v>
+      </c>
+      <c r="S952" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T952" t="inlineStr">
+        <is>
+          <t>Support developer</t>
+        </is>
+      </c>
+      <c r="U952" t="n">
+        <v>3700</v>
+      </c>
+      <c r="V952" t="n">
+        <v>3700</v>
+      </c>
+      <c r="W952" t="inlineStr">
+        <is>
+          <t>100% salary</t>
+        </is>
+      </c>
       <c r="X952" t="inlineStr">
         <is>
-          <t>Muu</t>
+          <t>Kyllä</t>
         </is>
       </c>
       <c r="Y952" t="inlineStr"/>
@@ -91185,9 +91177,96 @@
           <t>en</t>
         </is>
       </c>
-      <c r="AC952" t="inlineStr"/>
-      <c r="AD952" t="inlineStr"/>
-      <c r="AE952" t="inlineStr"/>
+      <c r="AC952" t="inlineStr">
+        <is>
+          <t>Support developer</t>
+        </is>
+      </c>
+      <c r="AD952" t="n">
+        <v>308.3333333333333</v>
+      </c>
+      <c r="AE952" t="n">
+        <v>308.3333333333333</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="2" t="n">
+        <v>45191.59762563658</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>Laskuttaja</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>Ei</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>41-45</t>
+        </is>
+      </c>
+      <c r="E953" t="inlineStr"/>
+      <c r="F953" t="n">
+        <v>22</v>
+      </c>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>Industrial Engineering</t>
+        </is>
+      </c>
+      <c r="H953" t="inlineStr"/>
+      <c r="I953" t="n">
+        <v>5</v>
+      </c>
+      <c r="J953" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Front end, back end, fullstack, web, mobile, Integrations, maintenance </t>
+        </is>
+      </c>
+      <c r="K953" t="n">
+        <v>0</v>
+      </c>
+      <c r="L953" t="n">
+        <v>0</v>
+      </c>
+      <c r="M953" t="inlineStr">
+        <is>
+          <t>Myself, Agencies</t>
+        </is>
+      </c>
+      <c r="N953" t="inlineStr">
+        <is>
+          <t>Suomesta</t>
+        </is>
+      </c>
+      <c r="O953" t="inlineStr"/>
+      <c r="P953" t="inlineStr"/>
+      <c r="Q953" t="inlineStr"/>
+      <c r="R953" t="inlineStr"/>
+      <c r="S953" t="inlineStr"/>
+      <c r="T953" t="inlineStr"/>
+      <c r="U953" t="inlineStr"/>
+      <c r="V953" t="inlineStr"/>
+      <c r="W953" t="inlineStr"/>
+      <c r="X953" t="inlineStr">
+        <is>
+          <t>Muu</t>
+        </is>
+      </c>
+      <c r="Y953" t="inlineStr"/>
+      <c r="Z953" t="inlineStr"/>
+      <c r="AA953" t="inlineStr"/>
+      <c r="AB953" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="AC953" t="inlineStr"/>
+      <c r="AD953" t="inlineStr"/>
+      <c r="AE953" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2023/data.xlsx
+++ b/2023/data.xlsx
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="S51" t="n">
         <v>0.1</v>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="R157" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="S157" t="n">
         <v>0</v>
@@ -15385,7 +15385,7 @@
         <v>5000</v>
       </c>
       <c r="AE157" t="n">
-        <v>13333.33333333333</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="158">
@@ -22249,7 +22249,7 @@
         </is>
       </c>
       <c r="R230" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="S230" t="n">
         <v>0.4</v>
@@ -22288,7 +22288,7 @@
         <v>4166.666666666667</v>
       </c>
       <c r="AE230" t="n">
-        <v>11111.11111111111</v>
+        <v>4166.666666666667</v>
       </c>
     </row>
     <row r="231">
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="R290" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="S290" t="n">
         <v>0.02</v>
@@ -27966,7 +27966,7 @@
         <v>7333.333333333333</v>
       </c>
       <c r="AE290" t="n">
-        <v>19555.55555555555</v>
+        <v>7333.333333333333</v>
       </c>
     </row>
     <row r="291">
@@ -29718,7 +29718,7 @@
         </is>
       </c>
       <c r="R309" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="S309" t="n">
         <v>0.3</v>
@@ -29757,7 +29757,7 @@
         <v>7291.666666666667</v>
       </c>
       <c r="AE309" t="n">
-        <v>19444.44444444445</v>
+        <v>7291.666666666667</v>
       </c>
     </row>
     <row r="310">
@@ -32679,7 +32679,7 @@
         </is>
       </c>
       <c r="R340" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="S340" t="n">
         <v>0.1</v>
@@ -32718,7 +32718,7 @@
         <v>5275</v>
       </c>
       <c r="AE340" t="n">
-        <v>14066.66666666667</v>
+        <v>5275</v>
       </c>
     </row>
     <row r="341">
@@ -38592,7 +38592,7 @@
         </is>
       </c>
       <c r="R402" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="S402" t="n">
         <v>0.2</v>
@@ -38635,7 +38635,7 @@
         <v>5833.333333333333</v>
       </c>
       <c r="AE402" t="n">
-        <v>15555.55555555555</v>
+        <v>5833.333333333333</v>
       </c>
     </row>
     <row r="403">
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="R635" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="S635" t="n">
         <v>0.1</v>
@@ -60830,7 +60830,7 @@
         <v>6000</v>
       </c>
       <c r="AE635" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="636">
@@ -62214,7 +62214,7 @@
         </is>
       </c>
       <c r="R650" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S650" t="n">
         <v>0</v>
@@ -62253,7 +62253,7 @@
         <v>4700</v>
       </c>
       <c r="AE650" t="n">
-        <v>470</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="651">
@@ -66297,7 +66297,7 @@
         </is>
       </c>
       <c r="R693" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="S693" t="n">
         <v>0.4</v>
@@ -66336,7 +66336,7 @@
         <v>4864.583333333333</v>
       </c>
       <c r="AE693" t="n">
-        <v>12972.22222222222</v>
+        <v>4864.583333333333</v>
       </c>
     </row>
     <row r="694">
